--- a/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.877482998820483</v>
+        <v>1.87748299882054</v>
       </c>
       <c r="C2">
-        <v>0.3038264407014424</v>
+        <v>0.3038264407010303</v>
       </c>
       <c r="D2">
-        <v>0.2009242610415782</v>
+        <v>0.2009242610416351</v>
       </c>
       <c r="E2">
-        <v>0.08515448422980043</v>
+        <v>0.08515448422993899</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.904659285940085</v>
+        <v>8.904659285940056</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4660332505671718</v>
+        <v>0.4660332505672002</v>
       </c>
       <c r="K2">
-        <v>0.1404988903336317</v>
+        <v>0.1404988903336672</v>
       </c>
       <c r="L2">
-        <v>0.5399407975416466</v>
+        <v>0.5399407975415969</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.602482150871339</v>
+        <v>1.602482150871055</v>
       </c>
       <c r="C3">
-        <v>0.2562878816317351</v>
+        <v>0.2562878816317635</v>
       </c>
       <c r="D3">
-        <v>0.1724339236241264</v>
+        <v>0.1724339236239416</v>
       </c>
       <c r="E3">
-        <v>0.07539444859064659</v>
+        <v>0.07539444859072475</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3958733578938194</v>
+        <v>0.3958733578937839</v>
       </c>
       <c r="K3">
-        <v>0.1214970092726837</v>
+        <v>0.1214970092726446</v>
       </c>
       <c r="L3">
-        <v>0.4633703059404795</v>
+        <v>0.4633703059404581</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,19 +491,19 @@
         <v>1.439745748482238</v>
       </c>
       <c r="C4">
-        <v>0.2283092793982888</v>
+        <v>0.2283092793979051</v>
       </c>
       <c r="D4">
-        <v>0.1554096500436515</v>
+        <v>0.1554096500439073</v>
       </c>
       <c r="E4">
-        <v>0.06955038456253604</v>
+        <v>0.06955038456245077</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.133243656716587</v>
+        <v>7.13324365671653</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3544074987015122</v>
+        <v>0.3544074987015406</v>
       </c>
       <c r="K4">
-        <v>0.1101674397429022</v>
+        <v>0.1101674397428738</v>
       </c>
       <c r="L4">
-        <v>0.4179090734887012</v>
+        <v>0.417909073488687</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.374741507995708</v>
+        <v>1.374741507996163</v>
       </c>
       <c r="C5">
-        <v>0.2171609570876001</v>
+        <v>0.2171609570880833</v>
       </c>
       <c r="D5">
         <v>0.148571631306595</v>
       </c>
       <c r="E5">
-        <v>0.06720057792102097</v>
+        <v>0.06720057792096412</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.866310014141987</v>
+        <v>6.866310014141959</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0.3378539294242771</v>
       </c>
       <c r="K5">
-        <v>0.1056231061696593</v>
+        <v>0.105623106169638</v>
       </c>
       <c r="L5">
         <v>0.399717075324368</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.364020793762649</v>
+        <v>1.36402079376245</v>
       </c>
       <c r="C6">
-        <v>0.2153237105445953</v>
+        <v>0.2153237105449932</v>
       </c>
       <c r="D6">
-        <v>0.1474416976243589</v>
+        <v>0.1474416976240605</v>
       </c>
       <c r="E6">
-        <v>0.06681215513001959</v>
+        <v>0.06681215512998762</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.822177392133511</v>
+        <v>6.82217739213354</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3351243571012432</v>
+        <v>0.3351243571012787</v>
       </c>
       <c r="K6">
-        <v>0.1048725720154629</v>
+        <v>0.1048725720154557</v>
       </c>
       <c r="L6">
         <v>0.3967149414250031</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.438864043190222</v>
+        <v>1.438864043190307</v>
       </c>
       <c r="C7">
-        <v>0.2281579667654512</v>
+        <v>0.2281579667658633</v>
       </c>
       <c r="D7">
-        <v>0.1553170499207681</v>
+        <v>0.1553170499207397</v>
       </c>
       <c r="E7">
-        <v>0.06951857293540797</v>
+        <v>0.0695185729354435</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.129630457207156</v>
+        <v>7.129630457207213</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3541829336759861</v>
+        <v>0.3541829336759932</v>
       </c>
       <c r="K7">
-        <v>0.1101058747403272</v>
+        <v>0.1101058747403059</v>
       </c>
       <c r="L7">
-        <v>0.4176624481747808</v>
+        <v>0.4176624481747879</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.781248236344283</v>
+        <v>1.781248236344794</v>
       </c>
       <c r="C8">
-        <v>0.2871509006075996</v>
+        <v>0.287150900607557</v>
       </c>
       <c r="D8">
-        <v>0.1909916513787664</v>
+        <v>0.190991651377999</v>
       </c>
       <c r="E8">
-        <v>0.08175473486062401</v>
+        <v>0.08175473486064888</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.518779828266332</v>
+        <v>8.518779828266389</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4414678518762116</v>
+        <v>0.4414678518762187</v>
       </c>
       <c r="K8">
-        <v>0.1338690338297077</v>
+        <v>0.1338690338297575</v>
       </c>
       <c r="L8">
-        <v>0.5131803763918441</v>
+        <v>0.5131803763918228</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.513193633714707</v>
+        <v>2.513193633714366</v>
       </c>
       <c r="C9">
-        <v>0.4151865758955751</v>
+        <v>0.4151865758956887</v>
       </c>
       <c r="D9">
-        <v>0.2656435555616099</v>
+        <v>0.265643555561752</v>
       </c>
       <c r="E9">
-        <v>0.1072279009608899</v>
+        <v>0.1072279009608472</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.41175293762038</v>
+        <v>11.41175293762009</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6287048706404619</v>
+        <v>0.6287048706403908</v>
       </c>
       <c r="K9">
-        <v>0.1837996704274474</v>
+        <v>0.1837996704274687</v>
       </c>
       <c r="L9">
-        <v>0.7158287928090274</v>
+        <v>0.7158287928089919</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.108260125386039</v>
+        <v>3.108260125385925</v>
       </c>
       <c r="C10">
-        <v>0.521506073710583</v>
+        <v>0.5215060737106683</v>
       </c>
       <c r="D10">
-        <v>0.324992885498645</v>
+        <v>0.3249928854989435</v>
       </c>
       <c r="E10">
-        <v>0.1273440348952768</v>
+        <v>0.1273440348953514</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.70235137855369</v>
+        <v>13.70235137855337</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7816484027468178</v>
+        <v>0.7816484027467965</v>
       </c>
       <c r="K10">
-        <v>0.2236102424032325</v>
+        <v>0.223610242403204</v>
       </c>
       <c r="L10">
-        <v>0.879161748696113</v>
+        <v>0.8791617486961272</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.397371184184237</v>
+        <v>3.397371184184522</v>
       </c>
       <c r="C11">
-        <v>0.5739343939940227</v>
+        <v>0.5739343939937385</v>
       </c>
       <c r="D11">
-        <v>0.3534437304813167</v>
+        <v>0.3534437304809046</v>
       </c>
       <c r="E11">
-        <v>0.1369424949668705</v>
+        <v>0.1369424949668492</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.79819654674242</v>
+        <v>14.79819654674191</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8562024221009921</v>
+        <v>0.8562024221009068</v>
       </c>
       <c r="K11">
-        <v>0.2427150325998113</v>
+        <v>0.2427150325998682</v>
       </c>
       <c r="L11">
-        <v>0.9580818695260476</v>
+        <v>0.9580818695261115</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.510143915608808</v>
+        <v>3.510143915608921</v>
       </c>
       <c r="C12">
-        <v>0.5945259365151969</v>
+        <v>0.594525936515879</v>
       </c>
       <c r="D12">
-        <v>0.3644770681473517</v>
+        <v>0.3644770681470817</v>
       </c>
       <c r="E12">
-        <v>0.1406567577264397</v>
+        <v>0.1406567577263971</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.22283224833569</v>
+        <v>15.22283224833626</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8853282588252398</v>
+        <v>0.8853282588252611</v>
       </c>
       <c r="K12">
-        <v>0.2501262863082516</v>
+        <v>0.2501262863083724</v>
       </c>
       <c r="L12">
-        <v>0.9887906494513743</v>
+        <v>0.9887906494513601</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.48569787110938</v>
+        <v>3.485697871108812</v>
       </c>
       <c r="C13">
-        <v>0.5900554774180762</v>
+        <v>0.5900554774181046</v>
       </c>
       <c r="D13">
-        <v>0.3620883569922739</v>
+        <v>0.3620883569923734</v>
       </c>
       <c r="E13">
-        <v>0.1398530080917411</v>
+        <v>0.1398530080917375</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.13091410435487</v>
+        <v>15.13091410435482</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8790124262223458</v>
+        <v>0.8790124262222676</v>
       </c>
       <c r="K13">
-        <v>0.2485216616452703</v>
+        <v>0.2485216616452774</v>
       </c>
       <c r="L13">
-        <v>0.9821373926604124</v>
+        <v>0.9821373926603982</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.406578818555317</v>
+        <v>3.406578818555204</v>
       </c>
       <c r="C14">
-        <v>0.5756126590018766</v>
+        <v>0.5756126590013082</v>
       </c>
       <c r="D14">
-        <v>0.3543459132372249</v>
+        <v>0.3543459132368554</v>
       </c>
       <c r="E14">
-        <v>0.137246376257913</v>
+        <v>0.1372463762578171</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14.83292530585044</v>
+        <v>14.83292530585021</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8585795326173979</v>
+        <v>0.8585795326173553</v>
       </c>
       <c r="K14">
-        <v>0.2433209992605754</v>
+        <v>0.243320999260618</v>
       </c>
       <c r="L14">
-        <v>0.9605907481746812</v>
+        <v>0.960590748174738</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.358566715369989</v>
+        <v>3.358566715369363</v>
       </c>
       <c r="C15">
-        <v>0.5668673638428459</v>
+        <v>0.5668673638423343</v>
       </c>
       <c r="D15">
         <v>0.3496389613220003</v>
       </c>
       <c r="E15">
-        <v>0.1356606059325429</v>
+        <v>0.1356606059326566</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.65172160315842</v>
+        <v>14.65172160315825</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8461862207857962</v>
+        <v>0.8461862207858459</v>
       </c>
       <c r="K15">
         <v>0.2401595834772152</v>
       </c>
       <c r="L15">
-        <v>0.9475054122886846</v>
+        <v>0.9475054122886419</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.089788272666055</v>
+        <v>3.089788272665601</v>
       </c>
       <c r="C16">
-        <v>0.518173818298294</v>
+        <v>0.5181738182972424</v>
       </c>
       <c r="D16">
-        <v>0.3231668637574074</v>
+        <v>0.323166863757109</v>
       </c>
       <c r="E16">
         <v>0.1267269807958229</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.63197313361363</v>
+        <v>13.63197313361368</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7768905700305737</v>
+        <v>0.7768905700306092</v>
       </c>
       <c r="K16">
         <v>0.2223844227119685</v>
       </c>
       <c r="L16">
-        <v>0.8741098677242363</v>
+        <v>0.8741098677242221</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.930030568821678</v>
+        <v>2.930030568821621</v>
       </c>
       <c r="C17">
-        <v>0.4894406297419494</v>
+        <v>0.4894406297416367</v>
       </c>
       <c r="D17">
-        <v>0.3073317559604618</v>
+        <v>0.3073317559606892</v>
       </c>
       <c r="E17">
-        <v>0.1213709060558337</v>
+        <v>0.1213709060558763</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.0214157952075</v>
+        <v>13.0214157952073</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7357690543970747</v>
+        <v>0.7357690543970818</v>
       </c>
       <c r="K17">
-        <v>0.2117563825461914</v>
+        <v>0.2117563825461701</v>
       </c>
       <c r="L17">
-        <v>0.8303693843305382</v>
+        <v>0.8303693843305311</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.839828971941017</v>
+        <v>2.83982897194096</v>
       </c>
       <c r="C18">
-        <v>0.4732853898220526</v>
+        <v>0.4732853898225642</v>
       </c>
       <c r="D18">
-        <v>0.2983569195312583</v>
+        <v>0.2983569195305051</v>
       </c>
       <c r="E18">
-        <v>0.118331278543657</v>
+        <v>0.1183312785437707</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.67517006769035</v>
+        <v>12.67517006769015</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7125729420026161</v>
+        <v>0.7125729420026232</v>
       </c>
       <c r="K18">
-        <v>0.2057346507205935</v>
+        <v>0.2057346507206432</v>
       </c>
       <c r="L18">
-        <v>0.8056344048831576</v>
+        <v>0.8056344048830866</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.809560696074527</v>
+        <v>2.8095606960743</v>
       </c>
       <c r="C19">
-        <v>0.4678751850961191</v>
+        <v>0.4678751850966023</v>
       </c>
       <c r="D19">
-        <v>0.2953396885876884</v>
+        <v>0.2953396885865658</v>
       </c>
       <c r="E19">
-        <v>0.1173087524717644</v>
+        <v>0.1173087524717005</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.5587323780025</v>
+        <v>12.55873237800247</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0.7047926816247951</v>
       </c>
       <c r="K19">
-        <v>0.2037105590469324</v>
+        <v>0.2037105590469039</v>
       </c>
       <c r="L19">
-        <v>0.7973280081964376</v>
+        <v>0.7973280081964518</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.946858275119951</v>
+        <v>2.946858275120348</v>
       </c>
       <c r="C20">
-        <v>0.4924599000849526</v>
+        <v>0.4924599000853505</v>
       </c>
       <c r="D20">
-        <v>0.3090033236463796</v>
+        <v>0.3090033236460812</v>
       </c>
       <c r="E20">
         <v>0.1219367219246514</v>
@@ -1123,10 +1123,10 @@
         <v>0.7400981711513595</v>
       </c>
       <c r="K20">
-        <v>0.2128780930538383</v>
+        <v>0.2128780930538952</v>
       </c>
       <c r="L20">
-        <v>0.8349807763559127</v>
+        <v>0.834980776355934</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.429722716543438</v>
+        <v>3.429722716543893</v>
       </c>
       <c r="C21">
-        <v>0.5798334120717357</v>
+        <v>0.5798334120717925</v>
       </c>
       <c r="D21">
-        <v>0.3566125466218466</v>
+        <v>0.3566125466219603</v>
       </c>
       <c r="E21">
-        <v>0.1380097103972737</v>
+        <v>0.1380097103973021</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>14.92017203169053</v>
+        <v>14.92017203169036</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8645552738928473</v>
+        <v>0.8645552738928686</v>
       </c>
       <c r="K21">
-        <v>0.2448434576524789</v>
+        <v>0.2448434576524363</v>
       </c>
       <c r="L21">
-        <v>0.9668957132053819</v>
+        <v>0.9668957132054672</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.764917926639896</v>
+        <v>3.764917926639725</v>
       </c>
       <c r="C22">
-        <v>0.6413415516314842</v>
+        <v>0.6413415516310579</v>
       </c>
       <c r="D22">
-        <v>0.389274147870978</v>
+        <v>0.3892741478705375</v>
       </c>
       <c r="E22">
-        <v>0.1489876965761816</v>
+        <v>0.1489876965761283</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.1765525282683</v>
+        <v>16.17655252826836</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.951222376545104</v>
+        <v>0.9512223765451537</v>
       </c>
       <c r="K22">
-        <v>0.2667862810850821</v>
+        <v>0.2667862810850608</v>
       </c>
       <c r="L22">
-        <v>1.058013294053296</v>
+        <v>1.05801329405331</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.583966272815587</v>
+        <v>3.583966272815417</v>
       </c>
       <c r="C23">
-        <v>0.6080487207304088</v>
+        <v>0.6080487207302383</v>
       </c>
       <c r="D23">
-        <v>0.3716804692614772</v>
+        <v>0.3716804692618609</v>
       </c>
       <c r="E23">
-        <v>0.1430792473326967</v>
+        <v>0.1430792473327394</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.49997086625285</v>
+        <v>15.49997086625211</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9044080985419143</v>
+        <v>0.9044080985419782</v>
       </c>
       <c r="K23">
-        <v>0.2549654755626705</v>
+        <v>0.2549654755626136</v>
       </c>
       <c r="L23">
-        <v>1.008870257446667</v>
+        <v>1.008870257446674</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.939245391084569</v>
+        <v>2.939245391084285</v>
       </c>
       <c r="C24">
-        <v>0.4910937657081718</v>
+        <v>0.491093765708996</v>
       </c>
       <c r="D24">
-        <v>0.3082472098240316</v>
+        <v>0.3082472098251543</v>
       </c>
       <c r="E24">
-        <v>0.121680794164277</v>
+        <v>0.1216807941642628</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.05672528953409</v>
+        <v>13.05672528953411</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7381396036036918</v>
+        <v>0.738139603603706</v>
       </c>
       <c r="K24">
-        <v>0.2123706946012263</v>
+        <v>0.2123706946013542</v>
       </c>
       <c r="L24">
-        <v>0.8328946942068001</v>
+        <v>0.8328946942068285</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>2.306828287368887</v>
       </c>
       <c r="C25">
-        <v>0.3787964159990622</v>
+        <v>0.378796415998039</v>
       </c>
       <c r="D25">
         <v>0.2447942345591798</v>
       </c>
       <c r="E25">
-        <v>0.100132159481845</v>
+        <v>0.1001321594819125</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.60530710796112</v>
+        <v>10.60530710796104</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5758197487656673</v>
+        <v>0.5758197487656389</v>
       </c>
       <c r="K25">
-        <v>0.1698341792983094</v>
+        <v>0.169834179298352</v>
       </c>
       <c r="L25">
-        <v>0.6588955705293742</v>
+        <v>0.6588955705293671</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.87748299882054</v>
+        <v>1.877482998820483</v>
       </c>
       <c r="C2">
-        <v>0.3038264407010303</v>
+        <v>0.3038264407014424</v>
       </c>
       <c r="D2">
-        <v>0.2009242610416351</v>
+        <v>0.2009242610415782</v>
       </c>
       <c r="E2">
-        <v>0.08515448422993899</v>
+        <v>0.08515448422980043</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.904659285940056</v>
+        <v>8.904659285940085</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4660332505672002</v>
+        <v>0.4660332505671718</v>
       </c>
       <c r="K2">
-        <v>0.1404988903336672</v>
+        <v>0.1404988903336317</v>
       </c>
       <c r="L2">
-        <v>0.5399407975415969</v>
+        <v>0.5399407975416466</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.602482150871055</v>
+        <v>1.602482150871339</v>
       </c>
       <c r="C3">
-        <v>0.2562878816317635</v>
+        <v>0.2562878816317351</v>
       </c>
       <c r="D3">
-        <v>0.1724339236239416</v>
+        <v>0.1724339236241264</v>
       </c>
       <c r="E3">
-        <v>0.07539444859072475</v>
+        <v>0.07539444859064659</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3958733578937839</v>
+        <v>0.3958733578938194</v>
       </c>
       <c r="K3">
-        <v>0.1214970092726446</v>
+        <v>0.1214970092726837</v>
       </c>
       <c r="L3">
-        <v>0.4633703059404581</v>
+        <v>0.4633703059404795</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,19 +491,19 @@
         <v>1.439745748482238</v>
       </c>
       <c r="C4">
-        <v>0.2283092793979051</v>
+        <v>0.2283092793982888</v>
       </c>
       <c r="D4">
-        <v>0.1554096500439073</v>
+        <v>0.1554096500436515</v>
       </c>
       <c r="E4">
-        <v>0.06955038456245077</v>
+        <v>0.06955038456253604</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.13324365671653</v>
+        <v>7.133243656716587</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3544074987015406</v>
+        <v>0.3544074987015122</v>
       </c>
       <c r="K4">
-        <v>0.1101674397428738</v>
+        <v>0.1101674397429022</v>
       </c>
       <c r="L4">
-        <v>0.417909073488687</v>
+        <v>0.4179090734887012</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.374741507996163</v>
+        <v>1.374741507995708</v>
       </c>
       <c r="C5">
-        <v>0.2171609570880833</v>
+        <v>0.2171609570876001</v>
       </c>
       <c r="D5">
         <v>0.148571631306595</v>
       </c>
       <c r="E5">
-        <v>0.06720057792096412</v>
+        <v>0.06720057792102097</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.866310014141959</v>
+        <v>6.866310014141987</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0.3378539294242771</v>
       </c>
       <c r="K5">
-        <v>0.105623106169638</v>
+        <v>0.1056231061696593</v>
       </c>
       <c r="L5">
         <v>0.399717075324368</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.36402079376245</v>
+        <v>1.364020793762649</v>
       </c>
       <c r="C6">
-        <v>0.2153237105449932</v>
+        <v>0.2153237105445953</v>
       </c>
       <c r="D6">
-        <v>0.1474416976240605</v>
+        <v>0.1474416976243589</v>
       </c>
       <c r="E6">
-        <v>0.06681215512998762</v>
+        <v>0.06681215513001959</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.82217739213354</v>
+        <v>6.822177392133511</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3351243571012787</v>
+        <v>0.3351243571012432</v>
       </c>
       <c r="K6">
-        <v>0.1048725720154557</v>
+        <v>0.1048725720154629</v>
       </c>
       <c r="L6">
         <v>0.3967149414250031</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.438864043190307</v>
+        <v>1.438864043190222</v>
       </c>
       <c r="C7">
-        <v>0.2281579667658633</v>
+        <v>0.2281579667654512</v>
       </c>
       <c r="D7">
-        <v>0.1553170499207397</v>
+        <v>0.1553170499207681</v>
       </c>
       <c r="E7">
-        <v>0.0695185729354435</v>
+        <v>0.06951857293540797</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.129630457207213</v>
+        <v>7.129630457207156</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3541829336759932</v>
+        <v>0.3541829336759861</v>
       </c>
       <c r="K7">
-        <v>0.1101058747403059</v>
+        <v>0.1101058747403272</v>
       </c>
       <c r="L7">
-        <v>0.4176624481747879</v>
+        <v>0.4176624481747808</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.781248236344794</v>
+        <v>1.781248236344283</v>
       </c>
       <c r="C8">
-        <v>0.287150900607557</v>
+        <v>0.2871509006075996</v>
       </c>
       <c r="D8">
-        <v>0.190991651377999</v>
+        <v>0.1909916513787664</v>
       </c>
       <c r="E8">
-        <v>0.08175473486064888</v>
+        <v>0.08175473486062401</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.518779828266389</v>
+        <v>8.518779828266332</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4414678518762187</v>
+        <v>0.4414678518762116</v>
       </c>
       <c r="K8">
-        <v>0.1338690338297575</v>
+        <v>0.1338690338297077</v>
       </c>
       <c r="L8">
-        <v>0.5131803763918228</v>
+        <v>0.5131803763918441</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.513193633714366</v>
+        <v>2.513193633714707</v>
       </c>
       <c r="C9">
-        <v>0.4151865758956887</v>
+        <v>0.4151865758955751</v>
       </c>
       <c r="D9">
-        <v>0.265643555561752</v>
+        <v>0.2656435555616099</v>
       </c>
       <c r="E9">
-        <v>0.1072279009608472</v>
+        <v>0.1072279009608899</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.41175293762009</v>
+        <v>11.41175293762038</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6287048706403908</v>
+        <v>0.6287048706404619</v>
       </c>
       <c r="K9">
-        <v>0.1837996704274687</v>
+        <v>0.1837996704274474</v>
       </c>
       <c r="L9">
-        <v>0.7158287928089919</v>
+        <v>0.7158287928090274</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.108260125385925</v>
+        <v>3.108260125386039</v>
       </c>
       <c r="C10">
-        <v>0.5215060737106683</v>
+        <v>0.521506073710583</v>
       </c>
       <c r="D10">
-        <v>0.3249928854989435</v>
+        <v>0.324992885498645</v>
       </c>
       <c r="E10">
-        <v>0.1273440348953514</v>
+        <v>0.1273440348952768</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.70235137855337</v>
+        <v>13.70235137855369</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7816484027467965</v>
+        <v>0.7816484027468178</v>
       </c>
       <c r="K10">
-        <v>0.223610242403204</v>
+        <v>0.2236102424032325</v>
       </c>
       <c r="L10">
-        <v>0.8791617486961272</v>
+        <v>0.879161748696113</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.397371184184522</v>
+        <v>3.397371184184237</v>
       </c>
       <c r="C11">
-        <v>0.5739343939937385</v>
+        <v>0.5739343939940227</v>
       </c>
       <c r="D11">
-        <v>0.3534437304809046</v>
+        <v>0.3534437304813167</v>
       </c>
       <c r="E11">
-        <v>0.1369424949668492</v>
+        <v>0.1369424949668705</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.79819654674191</v>
+        <v>14.79819654674242</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8562024221009068</v>
+        <v>0.8562024221009921</v>
       </c>
       <c r="K11">
-        <v>0.2427150325998682</v>
+        <v>0.2427150325998113</v>
       </c>
       <c r="L11">
-        <v>0.9580818695261115</v>
+        <v>0.9580818695260476</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.510143915608921</v>
+        <v>3.510143915608808</v>
       </c>
       <c r="C12">
-        <v>0.594525936515879</v>
+        <v>0.5945259365151969</v>
       </c>
       <c r="D12">
-        <v>0.3644770681470817</v>
+        <v>0.3644770681473517</v>
       </c>
       <c r="E12">
-        <v>0.1406567577263971</v>
+        <v>0.1406567577264397</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.22283224833626</v>
+        <v>15.22283224833569</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8853282588252611</v>
+        <v>0.8853282588252398</v>
       </c>
       <c r="K12">
-        <v>0.2501262863083724</v>
+        <v>0.2501262863082516</v>
       </c>
       <c r="L12">
-        <v>0.9887906494513601</v>
+        <v>0.9887906494513743</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.485697871108812</v>
+        <v>3.48569787110938</v>
       </c>
       <c r="C13">
-        <v>0.5900554774181046</v>
+        <v>0.5900554774180762</v>
       </c>
       <c r="D13">
-        <v>0.3620883569923734</v>
+        <v>0.3620883569922739</v>
       </c>
       <c r="E13">
-        <v>0.1398530080917375</v>
+        <v>0.1398530080917411</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.13091410435482</v>
+        <v>15.13091410435487</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8790124262222676</v>
+        <v>0.8790124262223458</v>
       </c>
       <c r="K13">
-        <v>0.2485216616452774</v>
+        <v>0.2485216616452703</v>
       </c>
       <c r="L13">
-        <v>0.9821373926603982</v>
+        <v>0.9821373926604124</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.406578818555204</v>
+        <v>3.406578818555317</v>
       </c>
       <c r="C14">
-        <v>0.5756126590013082</v>
+        <v>0.5756126590018766</v>
       </c>
       <c r="D14">
-        <v>0.3543459132368554</v>
+        <v>0.3543459132372249</v>
       </c>
       <c r="E14">
-        <v>0.1372463762578171</v>
+        <v>0.137246376257913</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14.83292530585021</v>
+        <v>14.83292530585044</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8585795326173553</v>
+        <v>0.8585795326173979</v>
       </c>
       <c r="K14">
-        <v>0.243320999260618</v>
+        <v>0.2433209992605754</v>
       </c>
       <c r="L14">
-        <v>0.960590748174738</v>
+        <v>0.9605907481746812</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.358566715369363</v>
+        <v>3.358566715369989</v>
       </c>
       <c r="C15">
-        <v>0.5668673638423343</v>
+        <v>0.5668673638428459</v>
       </c>
       <c r="D15">
         <v>0.3496389613220003</v>
       </c>
       <c r="E15">
-        <v>0.1356606059326566</v>
+        <v>0.1356606059325429</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.65172160315825</v>
+        <v>14.65172160315842</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8461862207858459</v>
+        <v>0.8461862207857962</v>
       </c>
       <c r="K15">
         <v>0.2401595834772152</v>
       </c>
       <c r="L15">
-        <v>0.9475054122886419</v>
+        <v>0.9475054122886846</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.089788272665601</v>
+        <v>3.089788272666055</v>
       </c>
       <c r="C16">
-        <v>0.5181738182972424</v>
+        <v>0.518173818298294</v>
       </c>
       <c r="D16">
-        <v>0.323166863757109</v>
+        <v>0.3231668637574074</v>
       </c>
       <c r="E16">
         <v>0.1267269807958229</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.63197313361368</v>
+        <v>13.63197313361363</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7768905700306092</v>
+        <v>0.7768905700305737</v>
       </c>
       <c r="K16">
         <v>0.2223844227119685</v>
       </c>
       <c r="L16">
-        <v>0.8741098677242221</v>
+        <v>0.8741098677242363</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.930030568821621</v>
+        <v>2.930030568821678</v>
       </c>
       <c r="C17">
-        <v>0.4894406297416367</v>
+        <v>0.4894406297419494</v>
       </c>
       <c r="D17">
-        <v>0.3073317559606892</v>
+        <v>0.3073317559604618</v>
       </c>
       <c r="E17">
-        <v>0.1213709060558763</v>
+        <v>0.1213709060558337</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.0214157952073</v>
+        <v>13.0214157952075</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7357690543970818</v>
+        <v>0.7357690543970747</v>
       </c>
       <c r="K17">
-        <v>0.2117563825461701</v>
+        <v>0.2117563825461914</v>
       </c>
       <c r="L17">
-        <v>0.8303693843305311</v>
+        <v>0.8303693843305382</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.83982897194096</v>
+        <v>2.839828971941017</v>
       </c>
       <c r="C18">
-        <v>0.4732853898225642</v>
+        <v>0.4732853898220526</v>
       </c>
       <c r="D18">
-        <v>0.2983569195305051</v>
+        <v>0.2983569195312583</v>
       </c>
       <c r="E18">
-        <v>0.1183312785437707</v>
+        <v>0.118331278543657</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.67517006769015</v>
+        <v>12.67517006769035</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7125729420026232</v>
+        <v>0.7125729420026161</v>
       </c>
       <c r="K18">
-        <v>0.2057346507206432</v>
+        <v>0.2057346507205935</v>
       </c>
       <c r="L18">
-        <v>0.8056344048830866</v>
+        <v>0.8056344048831576</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.8095606960743</v>
+        <v>2.809560696074527</v>
       </c>
       <c r="C19">
-        <v>0.4678751850966023</v>
+        <v>0.4678751850961191</v>
       </c>
       <c r="D19">
-        <v>0.2953396885865658</v>
+        <v>0.2953396885876884</v>
       </c>
       <c r="E19">
-        <v>0.1173087524717005</v>
+        <v>0.1173087524717644</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.55873237800247</v>
+        <v>12.5587323780025</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0.7047926816247951</v>
       </c>
       <c r="K19">
-        <v>0.2037105590469039</v>
+        <v>0.2037105590469324</v>
       </c>
       <c r="L19">
-        <v>0.7973280081964518</v>
+        <v>0.7973280081964376</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.946858275120348</v>
+        <v>2.946858275119951</v>
       </c>
       <c r="C20">
-        <v>0.4924599000853505</v>
+        <v>0.4924599000849526</v>
       </c>
       <c r="D20">
-        <v>0.3090033236460812</v>
+        <v>0.3090033236463796</v>
       </c>
       <c r="E20">
         <v>0.1219367219246514</v>
@@ -1123,10 +1123,10 @@
         <v>0.7400981711513595</v>
       </c>
       <c r="K20">
-        <v>0.2128780930538952</v>
+        <v>0.2128780930538383</v>
       </c>
       <c r="L20">
-        <v>0.834980776355934</v>
+        <v>0.8349807763559127</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.429722716543893</v>
+        <v>3.429722716543438</v>
       </c>
       <c r="C21">
-        <v>0.5798334120717925</v>
+        <v>0.5798334120717357</v>
       </c>
       <c r="D21">
-        <v>0.3566125466219603</v>
+        <v>0.3566125466218466</v>
       </c>
       <c r="E21">
-        <v>0.1380097103973021</v>
+        <v>0.1380097103972737</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>14.92017203169036</v>
+        <v>14.92017203169053</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8645552738928686</v>
+        <v>0.8645552738928473</v>
       </c>
       <c r="K21">
-        <v>0.2448434576524363</v>
+        <v>0.2448434576524789</v>
       </c>
       <c r="L21">
-        <v>0.9668957132054672</v>
+        <v>0.9668957132053819</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.764917926639725</v>
+        <v>3.764917926639896</v>
       </c>
       <c r="C22">
-        <v>0.6413415516310579</v>
+        <v>0.6413415516314842</v>
       </c>
       <c r="D22">
-        <v>0.3892741478705375</v>
+        <v>0.389274147870978</v>
       </c>
       <c r="E22">
-        <v>0.1489876965761283</v>
+        <v>0.1489876965761816</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.17655252826836</v>
+        <v>16.1765525282683</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9512223765451537</v>
+        <v>0.951222376545104</v>
       </c>
       <c r="K22">
-        <v>0.2667862810850608</v>
+        <v>0.2667862810850821</v>
       </c>
       <c r="L22">
-        <v>1.05801329405331</v>
+        <v>1.058013294053296</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.583966272815417</v>
+        <v>3.583966272815587</v>
       </c>
       <c r="C23">
-        <v>0.6080487207302383</v>
+        <v>0.6080487207304088</v>
       </c>
       <c r="D23">
-        <v>0.3716804692618609</v>
+        <v>0.3716804692614772</v>
       </c>
       <c r="E23">
-        <v>0.1430792473327394</v>
+        <v>0.1430792473326967</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.49997086625211</v>
+        <v>15.49997086625285</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9044080985419782</v>
+        <v>0.9044080985419143</v>
       </c>
       <c r="K23">
-        <v>0.2549654755626136</v>
+        <v>0.2549654755626705</v>
       </c>
       <c r="L23">
-        <v>1.008870257446674</v>
+        <v>1.008870257446667</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.939245391084285</v>
+        <v>2.939245391084569</v>
       </c>
       <c r="C24">
-        <v>0.491093765708996</v>
+        <v>0.4910937657081718</v>
       </c>
       <c r="D24">
-        <v>0.3082472098251543</v>
+        <v>0.3082472098240316</v>
       </c>
       <c r="E24">
-        <v>0.1216807941642628</v>
+        <v>0.121680794164277</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.05672528953411</v>
+        <v>13.05672528953409</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.738139603603706</v>
+        <v>0.7381396036036918</v>
       </c>
       <c r="K24">
-        <v>0.2123706946013542</v>
+        <v>0.2123706946012263</v>
       </c>
       <c r="L24">
-        <v>0.8328946942068285</v>
+        <v>0.8328946942068001</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>2.306828287368887</v>
       </c>
       <c r="C25">
-        <v>0.378796415998039</v>
+        <v>0.3787964159990622</v>
       </c>
       <c r="D25">
         <v>0.2447942345591798</v>
       </c>
       <c r="E25">
-        <v>0.1001321594819125</v>
+        <v>0.100132159481845</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.60530710796104</v>
+        <v>10.60530710796112</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5758197487656389</v>
+        <v>0.5758197487656673</v>
       </c>
       <c r="K25">
-        <v>0.169834179298352</v>
+        <v>0.1698341792983094</v>
       </c>
       <c r="L25">
-        <v>0.6588955705293671</v>
+        <v>0.6588955705293742</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.877482998820483</v>
+        <v>1.877054429385453</v>
       </c>
       <c r="C2">
-        <v>0.3038264407014424</v>
+        <v>0.3035854859460443</v>
       </c>
       <c r="D2">
-        <v>0.2009242610415782</v>
+        <v>0.2008998541544429</v>
       </c>
       <c r="E2">
-        <v>0.08515448422980043</v>
+        <v>0.08512245972998755</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.904659285940085</v>
+        <v>2.901484114898551</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.953584526114383</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4660332505671718</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1404988903336317</v>
+        <v>0.4658810379006582</v>
       </c>
       <c r="L2">
-        <v>0.5399407975416466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1404855172833201</v>
+      </c>
+      <c r="M2">
+        <v>0.5398669091187074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.602482150871339</v>
+        <v>1.60222703904185</v>
       </c>
       <c r="C3">
-        <v>0.2562878816317351</v>
+        <v>0.2561228473330601</v>
       </c>
       <c r="D3">
-        <v>0.1724339236241264</v>
+        <v>0.1724181203519777</v>
       </c>
       <c r="E3">
-        <v>0.07539444859064659</v>
+        <v>0.07537001085831463</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.796828748222197</v>
+        <v>2.531966185270534</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.222670277622626</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3958733578938194</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1214970092726837</v>
+        <v>0.3957777972628946</v>
       </c>
       <c r="L3">
-        <v>0.4633703059404795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1214884835773695</v>
+      </c>
+      <c r="M3">
+        <v>0.4633280079694018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.439745748482238</v>
+        <v>1.43957411482873</v>
       </c>
       <c r="C4">
-        <v>0.2283092793982888</v>
+        <v>0.2281841658015935</v>
       </c>
       <c r="D4">
-        <v>0.1554096500436515</v>
+        <v>0.1553981214399727</v>
       </c>
       <c r="E4">
-        <v>0.06955038456253604</v>
+        <v>0.06953039767351399</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.133243656716587</v>
+        <v>2.310579784063862</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.784880384302824</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3544074987015122</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1101674397429022</v>
+        <v>0.3543399861478065</v>
       </c>
       <c r="L4">
-        <v>0.4179090734887012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1101612948989157</v>
+      </c>
+      <c r="M4">
+        <v>0.4178816473078939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.374741507995708</v>
+        <v>1.374599071525466</v>
       </c>
       <c r="C5">
-        <v>0.2171609570876001</v>
+        <v>0.2170507212273094</v>
       </c>
       <c r="D5">
-        <v>0.148571631306595</v>
+        <v>0.1485616423115914</v>
       </c>
       <c r="E5">
-        <v>0.06720057792102097</v>
+        <v>0.06718236928409027</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.866310014141987</v>
+        <v>2.221513836774221</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.608782245009536</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3378539294242771</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1056231061696593</v>
+        <v>0.337796437943112</v>
       </c>
       <c r="L5">
-        <v>0.399717075324368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1056178121790339</v>
+      </c>
+      <c r="M5">
+        <v>0.3996947696413429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.364020793762649</v>
+        <v>1.363882939395296</v>
       </c>
       <c r="C6">
-        <v>0.2153237105445953</v>
+        <v>0.2152158687705139</v>
       </c>
       <c r="D6">
-        <v>0.1474416976243589</v>
+        <v>0.1474319533662225</v>
       </c>
       <c r="E6">
-        <v>0.06681215513001959</v>
+        <v>0.06679424005439216</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.822177392133511</v>
+        <v>2.206787751630714</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.579668081655939</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3351243571012432</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1048725720154629</v>
+        <v>0.3350684519211384</v>
       </c>
       <c r="L6">
-        <v>0.3967149414250031</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1048674128747464</v>
+      </c>
+      <c r="M6">
+        <v>0.3966934343352051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.438864043190222</v>
+        <v>1.438692821664688</v>
       </c>
       <c r="C7">
-        <v>0.2281579667654512</v>
+        <v>0.2280330590937893</v>
       </c>
       <c r="D7">
-        <v>0.1553170499207681</v>
+        <v>0.155305542839983</v>
       </c>
       <c r="E7">
-        <v>0.06951857293540797</v>
+        <v>0.06949861015252878</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.129630457207156</v>
+        <v>2.309374236379341</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.782496698896665</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3541829336759861</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1101058747403272</v>
+        <v>0.3541155616335345</v>
       </c>
       <c r="L7">
-        <v>0.4176624481747808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1100997418186829</v>
+      </c>
+      <c r="M7">
+        <v>0.4176350946211613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.781248236344283</v>
+        <v>1.780884896086974</v>
       </c>
       <c r="C8">
-        <v>0.2871509006075996</v>
+        <v>0.2869377064861567</v>
       </c>
       <c r="D8">
-        <v>0.1909916513787664</v>
+        <v>0.1909704543889035</v>
       </c>
       <c r="E8">
-        <v>0.08175473486062401</v>
+        <v>0.08172538044771471</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.518779828266332</v>
+        <v>2.772784042599369</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.698988156457261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4414678518762116</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1338690338297077</v>
+        <v>0.4413367598064326</v>
       </c>
       <c r="L8">
-        <v>0.5131803763918441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1338574760625946</v>
+      </c>
+      <c r="M8">
+        <v>0.5131184510633631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.513193633714707</v>
+        <v>2.512215200944752</v>
       </c>
       <c r="C9">
-        <v>0.4151865758955751</v>
+        <v>0.4147304043168276</v>
       </c>
       <c r="D9">
-        <v>0.2656435555616099</v>
+        <v>0.2655923554567039</v>
       </c>
       <c r="E9">
-        <v>0.1072279009608899</v>
+        <v>0.1071775110669364</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.41175293762038</v>
+        <v>3.737423255121257</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.607763989694149</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6287048706404619</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1837996704274474</v>
+        <v>0.6283790262566882</v>
       </c>
       <c r="L9">
-        <v>0.7158287928090274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1837709579057289</v>
+      </c>
+      <c r="M9">
+        <v>0.7156517049187343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.108260125386039</v>
+        <v>3.106580302027226</v>
       </c>
       <c r="C10">
-        <v>0.521506073710583</v>
+        <v>0.5207977254989089</v>
       </c>
       <c r="D10">
-        <v>0.324992885498645</v>
+        <v>0.3249071660485328</v>
       </c>
       <c r="E10">
-        <v>0.1273440348952768</v>
+        <v>0.1272747427576917</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.70235137855369</v>
+        <v>4.500860106526346</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.119052441048893</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7816484027468178</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2236102424032325</v>
+        <v>0.7811063911036058</v>
       </c>
       <c r="L10">
-        <v>0.879161748696113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2235614940245014</v>
+      </c>
+      <c r="M10">
+        <v>0.8788494993195997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.397371184184237</v>
+        <v>3.395283450405088</v>
       </c>
       <c r="C11">
-        <v>0.5739343939940227</v>
+        <v>0.5730850829365579</v>
       </c>
       <c r="D11">
-        <v>0.3534437304813167</v>
+        <v>0.3533376208855401</v>
       </c>
       <c r="E11">
-        <v>0.1369424949668705</v>
+        <v>0.1368632280082949</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14.79819654674242</v>
+        <v>4.865997440693548</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.842016335121571</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8562024221009921</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2427150325998113</v>
+        <v>0.8555360707498778</v>
       </c>
       <c r="L11">
-        <v>0.9580818695260476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2426543631676523</v>
+      </c>
+      <c r="M11">
+        <v>0.9576898592406664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.510143915608808</v>
+        <v>3.507884730478736</v>
       </c>
       <c r="C12">
-        <v>0.5945259365151969</v>
+        <v>0.5936182360233886</v>
       </c>
       <c r="D12">
-        <v>0.3644770681473517</v>
+        <v>0.3643623177188431</v>
       </c>
       <c r="E12">
-        <v>0.1406567577264397</v>
+        <v>0.1405734385276354</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.22283224833569</v>
+        <v>5.007469900304272</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.1221495066896</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8853282588252398</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2501262863082516</v>
+        <v>0.8846098555817363</v>
       </c>
       <c r="L12">
-        <v>0.9887906494513743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2500605503640756</v>
+      </c>
+      <c r="M12">
+        <v>0.988364913495694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.48569787110938</v>
+        <v>3.483476449553109</v>
       </c>
       <c r="C13">
-        <v>0.5900554774180762</v>
+        <v>0.589160599253546</v>
       </c>
       <c r="D13">
-        <v>0.3620883569922739</v>
+        <v>0.3619755133173044</v>
       </c>
       <c r="E13">
-        <v>0.1398530080917411</v>
+        <v>0.1397705753768221</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.13091410435487</v>
+        <v>4.976847068369352</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.06151154351727</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8790124262223458</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2485216616452703</v>
+        <v>0.8783054784081301</v>
       </c>
       <c r="L13">
-        <v>0.9821373926604124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2484570444004461</v>
+      </c>
+      <c r="M13">
+        <v>0.9817190944947782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.406578818555317</v>
+        <v>3.404477349136016</v>
       </c>
       <c r="C14">
-        <v>0.5756126590018766</v>
+        <v>0.574758653210921</v>
       </c>
       <c r="D14">
-        <v>0.3543459132372249</v>
+        <v>0.3542391129146978</v>
       </c>
       <c r="E14">
-        <v>0.137246376257913</v>
+        <v>0.1371667819714304</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14.83292530585044</v>
+        <v>4.877568094473986</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.864927262629806</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8585795326173979</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2433209992605754</v>
+        <v>0.8579090070348627</v>
       </c>
       <c r="L14">
-        <v>0.9605907481746812</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2432599251218335</v>
+      </c>
+      <c r="M14">
+        <v>0.9601960401076681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.358566715369989</v>
+        <v>3.356536358508492</v>
       </c>
       <c r="C15">
-        <v>0.5668673638428459</v>
+        <v>0.5660376973053758</v>
       </c>
       <c r="D15">
-        <v>0.3496389613220003</v>
+        <v>0.3495357341630694</v>
       </c>
       <c r="E15">
-        <v>0.1356606059325429</v>
+        <v>0.1355827116965536</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.65172160315842</v>
+        <v>4.817195384449292</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.745384740313398</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8461862207857962</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2401595834772152</v>
+        <v>0.8455373143687339</v>
       </c>
       <c r="L15">
-        <v>0.9475054122886846</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2401006023247518</v>
+      </c>
+      <c r="M15">
+        <v>0.9471246632580375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.089788272666055</v>
+        <v>3.08813299100575</v>
       </c>
       <c r="C16">
-        <v>0.518173818298294</v>
+        <v>0.5174740576147201</v>
       </c>
       <c r="D16">
-        <v>0.3231668637574074</v>
+        <v>0.3230823634750237</v>
       </c>
       <c r="E16">
-        <v>0.1267269807958229</v>
+        <v>0.1266583068459539</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.63197313361363</v>
+        <v>4.477407818906045</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.072620269002584</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7768905700305737</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2223844227119685</v>
+        <v>0.7763560651564703</v>
       </c>
       <c r="L16">
-        <v>0.8741098677242363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2223363853954794</v>
+      </c>
+      <c r="M16">
+        <v>0.8738023935528005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.930030568821678</v>
+        <v>2.928580049771483</v>
       </c>
       <c r="C17">
-        <v>0.4894406297419494</v>
+        <v>0.4888130806458832</v>
       </c>
       <c r="D17">
-        <v>0.3073317559604618</v>
+        <v>0.3072573943894525</v>
       </c>
       <c r="E17">
-        <v>0.1213709060558337</v>
+        <v>0.1213074889843142</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.0214157952075</v>
+        <v>4.273939580508085</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.66979790741027</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7357690543970747</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2117563825461914</v>
+        <v>0.7352973180498878</v>
       </c>
       <c r="L17">
-        <v>0.8303693843305382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2117142499087308</v>
+      </c>
+      <c r="M17">
+        <v>0.830101635359604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.839828971941017</v>
+        <v>2.838488182906474</v>
       </c>
       <c r="C18">
-        <v>0.4732853898220526</v>
+        <v>0.4726969976829309</v>
       </c>
       <c r="D18">
-        <v>0.2983569195312583</v>
+        <v>0.2982879670605314</v>
       </c>
       <c r="E18">
-        <v>0.118331278543657</v>
+        <v>0.1182707614321004</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.67517006769035</v>
+        <v>4.158544391483332</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.441353886784981</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7125729420026161</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2057346507205935</v>
+        <v>0.7121349536277819</v>
       </c>
       <c r="L18">
-        <v>0.8056344048831576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.205695661502169</v>
+      </c>
+      <c r="M18">
+        <v>0.8053878525449178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.809560696074527</v>
+        <v>2.808255784701203</v>
       </c>
       <c r="C19">
-        <v>0.4678751850961191</v>
+        <v>0.4672996739201949</v>
       </c>
       <c r="D19">
-        <v>0.2953396885876884</v>
+        <v>0.2952725011411985</v>
       </c>
       <c r="E19">
-        <v>0.1173087524717644</v>
+        <v>0.1172491979382748</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.5587323780025</v>
+        <v>4.119737127852659</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.364530675315393</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7047926816247951</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2037105590469324</v>
+        <v>0.704365746397734</v>
       </c>
       <c r="L19">
-        <v>0.7973280081964376</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.203672594432625</v>
+      </c>
+      <c r="M19">
+        <v>0.7970883714256942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.946858275119951</v>
+        <v>2.945386817367933</v>
       </c>
       <c r="C20">
-        <v>0.4924599000849526</v>
+        <v>0.491824917661944</v>
       </c>
       <c r="D20">
-        <v>0.3090033236463796</v>
+        <v>0.3089279280184911</v>
       </c>
       <c r="E20">
-        <v>0.1219367219246514</v>
+        <v>0.1218727585233594</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.08588781323337</v>
+        <v>4.295425812905307</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.71233455994917</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7400981711513595</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2128780930538383</v>
+        <v>0.7396200043231076</v>
       </c>
       <c r="L20">
-        <v>0.8349807763559127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2128353589286505</v>
+      </c>
+      <c r="M20">
+        <v>0.8347089750948342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.429722716543438</v>
+        <v>3.427586516108818</v>
       </c>
       <c r="C21">
-        <v>0.5798334120717357</v>
+        <v>0.5789675490031811</v>
       </c>
       <c r="D21">
-        <v>0.3566125466218466</v>
+        <v>0.3565039985852394</v>
       </c>
       <c r="E21">
-        <v>0.1380097103972737</v>
+        <v>0.1379292906119431</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>14.92017203169053</v>
+        <v>4.906635992716133</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.922484626675498</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8645552738928473</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2448434576524789</v>
+        <v>0.8638741969392569</v>
       </c>
       <c r="L21">
-        <v>0.9668957132053819</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2447813592675203</v>
+      </c>
+      <c r="M21">
+        <v>0.9664941804584544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.764917926639896</v>
+        <v>3.762245132151293</v>
       </c>
       <c r="C22">
-        <v>0.6413415516314842</v>
+        <v>0.6402946759349675</v>
       </c>
       <c r="D22">
-        <v>0.389274147870978</v>
+        <v>0.3891383852664205</v>
       </c>
       <c r="E22">
-        <v>0.1489876965761816</v>
+        <v>0.1488948603418194</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.1765525282683</v>
+        <v>5.325178894318185</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.75129106786329</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.951222376545104</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2667862810850821</v>
+        <v>0.9503788174935721</v>
       </c>
       <c r="L22">
-        <v>1.058013294053296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2667081937640319</v>
+      </c>
+      <c r="M22">
+        <v>1.057505770846035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.583966272815587</v>
+        <v>3.581591023452916</v>
       </c>
       <c r="C23">
-        <v>0.6080487207304088</v>
+        <v>0.6071017394083356</v>
       </c>
       <c r="D23">
-        <v>0.3716804692614772</v>
+        <v>0.3715598461324561</v>
       </c>
       <c r="E23">
-        <v>0.1430792473326967</v>
+        <v>0.1429932233762123</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.49997086625285</v>
+        <v>5.099796875266179</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.30497425545826</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9044080985419143</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2549654755626705</v>
+        <v>0.9036545191139709</v>
       </c>
       <c r="L23">
-        <v>1.008870257446667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2548962917600619</v>
+      </c>
+      <c r="M23">
+        <v>1.008421629734684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.939245391084569</v>
+        <v>2.937783424312499</v>
       </c>
       <c r="C24">
-        <v>0.4910937657081718</v>
+        <v>0.4904621511521441</v>
       </c>
       <c r="D24">
-        <v>0.3082472098240316</v>
+        <v>0.3081722829847138</v>
       </c>
       <c r="E24">
-        <v>0.121680794164277</v>
+        <v>0.1216170781342498</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.05672528953409</v>
+        <v>4.285707007507597</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.693094037917859</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7381396036036918</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2123706946012263</v>
+        <v>0.7376643511933452</v>
       </c>
       <c r="L24">
-        <v>0.8328946942068001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2123282331809691</v>
+      </c>
+      <c r="M24">
+        <v>0.83262473003753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.306828287368887</v>
+        <v>2.306050819967879</v>
       </c>
       <c r="C25">
-        <v>0.3787964159990622</v>
+        <v>0.3784161651875024</v>
       </c>
       <c r="D25">
-        <v>0.2447942345591798</v>
+        <v>0.2447528229499198</v>
       </c>
       <c r="E25">
-        <v>0.100132159481845</v>
+        <v>0.1000878999537349</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.60530710796112</v>
+        <v>3.468572379560925</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.075669510199731</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5758197487656673</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1698341792983094</v>
+        <v>0.5755567178965464</v>
       </c>
       <c r="L25">
-        <v>0.6588955705293742</v>
+        <v>0.1698111007223382</v>
+      </c>
+      <c r="M25">
+        <v>0.6587565807246278</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.877054429385453</v>
+        <v>4.109301449491909</v>
       </c>
       <c r="C2">
-        <v>0.3035854859460443</v>
+        <v>1.124185085657871</v>
       </c>
       <c r="D2">
-        <v>0.2008998541544429</v>
+        <v>0.323132707737301</v>
       </c>
       <c r="E2">
-        <v>0.08512245972998755</v>
+        <v>0.08495780993645852</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.901484114898551</v>
+        <v>0.0008121453011633584</v>
       </c>
       <c r="H2">
-        <v>5.953584526114383</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02149442749212227</v>
       </c>
       <c r="K2">
-        <v>0.4658810379006582</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1404855172833201</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5398669091187074</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.148650158436837</v>
+      </c>
+      <c r="N2">
+        <v>1.692749087086852</v>
+      </c>
+      <c r="O2">
+        <v>2.694941698370499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.60222703904185</v>
+        <v>3.570773412915457</v>
       </c>
       <c r="C3">
-        <v>0.2561228473330601</v>
+        <v>0.9725344493653267</v>
       </c>
       <c r="D3">
-        <v>0.1724181203519777</v>
+        <v>0.2978423200679856</v>
       </c>
       <c r="E3">
-        <v>0.07537001085831463</v>
+        <v>0.08013364555707625</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.531966185270534</v>
+        <v>0.0008233376532804648</v>
       </c>
       <c r="H3">
-        <v>5.222670277622626</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02138937768683213</v>
       </c>
       <c r="K3">
-        <v>0.3957777972628946</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1214884835773695</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4633280079694018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.007600382877122</v>
+      </c>
+      <c r="N3">
+        <v>1.700660396057984</v>
+      </c>
+      <c r="O3">
+        <v>2.462660029535215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.43957411482873</v>
+        <v>3.248462183491256</v>
       </c>
       <c r="C4">
-        <v>0.2281841658015935</v>
+        <v>0.881826344618645</v>
       </c>
       <c r="D4">
-        <v>0.1553981214399727</v>
+        <v>0.2829760975324405</v>
       </c>
       <c r="E4">
-        <v>0.06953039767351399</v>
+        <v>0.07733244318746557</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.310579784063862</v>
+        <v>0.0008303590163051038</v>
       </c>
       <c r="H4">
-        <v>4.784880384302824</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02135061468062283</v>
       </c>
       <c r="K4">
-        <v>0.3543399861478065</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1101612948989157</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4178816473078939</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.9234416551804685</v>
+      </c>
+      <c r="N4">
+        <v>1.70808073224174</v>
+      </c>
+      <c r="O4">
+        <v>2.326469606533635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.374599071525466</v>
+        <v>3.11893537725615</v>
       </c>
       <c r="C5">
-        <v>0.2170507212273094</v>
+        <v>0.8453827173527202</v>
       </c>
       <c r="D5">
-        <v>0.1485616423115914</v>
+        <v>0.277067913978712</v>
       </c>
       <c r="E5">
-        <v>0.06718236928409027</v>
+        <v>0.07622778927271412</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.221513836774221</v>
+        <v>0.0008332609276649843</v>
       </c>
       <c r="H5">
-        <v>4.608782245009536</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.02134093704544249</v>
       </c>
       <c r="K5">
-        <v>0.337796437943112</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1056178121790339</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3996947696413429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.8896836117469036</v>
+      </c>
+      <c r="N5">
+        <v>1.711699797081067</v>
+      </c>
+      <c r="O5">
+        <v>2.272410321107387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.363882939395296</v>
+        <v>3.097529657869813</v>
       </c>
       <c r="C6">
-        <v>0.2152158687705139</v>
+        <v>0.8393604310504088</v>
       </c>
       <c r="D6">
-        <v>0.1474319533662225</v>
+        <v>0.2760954671593367</v>
       </c>
       <c r="E6">
-        <v>0.06679424005439216</v>
+        <v>0.07604649062215074</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.206787751630714</v>
+        <v>0.0008337453285533592</v>
       </c>
       <c r="H6">
-        <v>4.579668081655939</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.02133969000247937</v>
       </c>
       <c r="K6">
-        <v>0.3350684519211384</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1048674128747464</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3966934343352051</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.8841084448106713</v>
+      </c>
+      <c r="N6">
+        <v>1.712335349160952</v>
+      </c>
+      <c r="O6">
+        <v>2.263515906527061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.438692821664688</v>
+        <v>3.246708330705815</v>
       </c>
       <c r="C7">
-        <v>0.2280330590937893</v>
+        <v>0.8813328499281283</v>
       </c>
       <c r="D7">
-        <v>0.155305542839983</v>
+        <v>0.2828958313396868</v>
       </c>
       <c r="E7">
-        <v>0.06949861015252878</v>
+        <v>0.07731740067064408</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.309374236379341</v>
+        <v>0.0008303979841155748</v>
       </c>
       <c r="H7">
-        <v>4.782496698896665</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0213504598305132</v>
       </c>
       <c r="K7">
-        <v>0.3541155616335345</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1100997418186829</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4176350946211613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.9229843037838492</v>
+      </c>
+      <c r="N7">
+        <v>1.70812719144719</v>
+      </c>
+      <c r="O7">
+        <v>2.325734937484398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.780884896086974</v>
+        <v>3.92170546143393</v>
       </c>
       <c r="C8">
-        <v>0.2869377064861567</v>
+        <v>1.071342823363636</v>
       </c>
       <c r="D8">
-        <v>0.1909704543889035</v>
+        <v>0.3142645906345081</v>
       </c>
       <c r="E8">
-        <v>0.08172538044771471</v>
+        <v>0.08325876849070823</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.772784042599369</v>
+        <v>0.0008159754406690608</v>
       </c>
       <c r="H8">
-        <v>5.698988156457261</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.02145263932126618</v>
       </c>
       <c r="K8">
-        <v>0.4413367598064326</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1338574760625946</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5131184510633631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.099458882149001</v>
+      </c>
+      <c r="N8">
+        <v>1.694913675906903</v>
+      </c>
+      <c r="O8">
+        <v>2.613402939451078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.512215200944752</v>
+        <v>5.326129538863711</v>
       </c>
       <c r="C9">
-        <v>0.4147304043168276</v>
+        <v>1.467411579700411</v>
       </c>
       <c r="D9">
-        <v>0.2655923554567039</v>
+        <v>0.3818886611278742</v>
       </c>
       <c r="E9">
-        <v>0.1071775110669364</v>
+        <v>0.09637127876558793</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.737423255121257</v>
+        <v>0.0007887163179321687</v>
       </c>
       <c r="H9">
-        <v>7.607763989694149</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.02187548891267532</v>
       </c>
       <c r="K9">
-        <v>0.6283790262566882</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1837709579057289</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7156517049187343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.468957774062616</v>
+      </c>
+      <c r="N9">
+        <v>1.691874315344805</v>
+      </c>
+      <c r="O9">
+        <v>3.237727765732828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.106580302027226</v>
+        <v>6.430862907335438</v>
       </c>
       <c r="C10">
-        <v>0.5207977254989089</v>
+        <v>1.779854830305794</v>
       </c>
       <c r="D10">
-        <v>0.3249071660485328</v>
+        <v>0.4366909502527108</v>
       </c>
       <c r="E10">
-        <v>0.1272747427576917</v>
+        <v>0.1071976283071621</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.500860106526346</v>
+        <v>0.0007690529789951042</v>
       </c>
       <c r="H10">
-        <v>9.119052441048893</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.02235156475087408</v>
       </c>
       <c r="K10">
-        <v>0.7811063911036058</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2235614940245014</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8788494993195997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.761272377368556</v>
+      </c>
+      <c r="N10">
+        <v>1.707724119371974</v>
+      </c>
+      <c r="O10">
+        <v>3.748085518289088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.395283450405088</v>
+        <v>6.95575399914253</v>
       </c>
       <c r="C11">
-        <v>0.5730850829365579</v>
+        <v>1.928623169538412</v>
       </c>
       <c r="D11">
-        <v>0.3533376208855401</v>
+        <v>0.4631154489836717</v>
       </c>
       <c r="E11">
-        <v>0.1368632280082949</v>
+        <v>0.1124644327413797</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.865997440693548</v>
+        <v>0.0007601158612699166</v>
       </c>
       <c r="H11">
-        <v>9.842016335121571</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.02261224916771276</v>
       </c>
       <c r="K11">
-        <v>0.8555360707498778</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2426543631676523</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9576898592406664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.900579844748265</v>
+      </c>
+      <c r="N11">
+        <v>1.72000259415438</v>
+      </c>
+      <c r="O11">
+        <v>3.995589037521029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.507884730478736</v>
+        <v>7.158391870429398</v>
       </c>
       <c r="C12">
-        <v>0.5936182360233886</v>
+        <v>1.986114579376363</v>
       </c>
       <c r="D12">
-        <v>0.3643623177188431</v>
+        <v>0.4733756468420722</v>
       </c>
       <c r="E12">
-        <v>0.1405734385276354</v>
+        <v>0.1145164314965434</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.007469900304272</v>
+        <v>0.0007567255446606068</v>
       </c>
       <c r="H12">
-        <v>10.1221495066896</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.02271814645178516</v>
       </c>
       <c r="K12">
-        <v>0.8846098555817363</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2500605503640756</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.988364913495694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.954426468801969</v>
+      </c>
+      <c r="N12">
+        <v>1.725498512589439</v>
+      </c>
+      <c r="O12">
+        <v>4.091938748719997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.483476449553109</v>
+        <v>7.114566078933535</v>
       </c>
       <c r="C13">
-        <v>0.589160599253546</v>
+        <v>1.973677728469227</v>
       </c>
       <c r="D13">
-        <v>0.3619755133173044</v>
+        <v>0.471153943772407</v>
       </c>
       <c r="E13">
-        <v>0.1397705753768221</v>
+        <v>0.1140717852441995</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.976847068369352</v>
+        <v>0.0007574561060993275</v>
       </c>
       <c r="H13">
-        <v>10.06151154351727</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02269500512180578</v>
       </c>
       <c r="K13">
-        <v>0.8783054784081301</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2484570444004461</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9817190944947782</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.942777690972548</v>
+      </c>
+      <c r="N13">
+        <v>1.724275114292453</v>
+      </c>
+      <c r="O13">
+        <v>4.071063805751407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.404477349136016</v>
+        <v>6.972343295602684</v>
       </c>
       <c r="C14">
-        <v>0.574758653210921</v>
+        <v>1.933328559404231</v>
       </c>
       <c r="D14">
-        <v>0.3542391129146978</v>
+        <v>0.4639542262532359</v>
       </c>
       <c r="E14">
-        <v>0.1371667819714304</v>
+        <v>0.1126320442306934</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.877568094473986</v>
+        <v>0.0007598371042594733</v>
       </c>
       <c r="H14">
-        <v>9.864927262629806</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02262081210641398</v>
       </c>
       <c r="K14">
-        <v>0.8579090070348627</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2432599251218335</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9601960401076681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.904986742126823</v>
+      </c>
+      <c r="N14">
+        <v>1.720437031958923</v>
+      </c>
+      <c r="O14">
+        <v>4.003460480638552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.356536358508492</v>
+        <v>6.885753799183931</v>
       </c>
       <c r="C15">
-        <v>0.5660376973053758</v>
+        <v>1.908770725289457</v>
       </c>
       <c r="D15">
-        <v>0.3495357341630694</v>
+        <v>0.459578522117738</v>
       </c>
       <c r="E15">
-        <v>0.1355827116965536</v>
+        <v>0.1117579355209983</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.817195384449292</v>
+        <v>0.0007612945153460405</v>
       </c>
       <c r="H15">
-        <v>9.745384740313398</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02257632955474342</v>
       </c>
       <c r="K15">
-        <v>0.8455373143687339</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2401006023247518</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9471246632580375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.881987179269345</v>
+      </c>
+      <c r="N15">
+        <v>1.718200179390777</v>
+      </c>
+      <c r="O15">
+        <v>3.96240720694351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.08813299100575</v>
+        <v>6.397063361495384</v>
       </c>
       <c r="C16">
-        <v>0.5174740576147201</v>
+        <v>1.770282413013717</v>
       </c>
       <c r="D16">
-        <v>0.3230823634750237</v>
+        <v>0.4349972889432081</v>
       </c>
       <c r="E16">
-        <v>0.1266583068459539</v>
+        <v>0.10686099429142</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.477407818906045</v>
+        <v>0.0007696366159555339</v>
       </c>
       <c r="H16">
-        <v>9.072620269002584</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02233548431885879</v>
       </c>
       <c r="K16">
-        <v>0.7763560651564703</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2223363853954794</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8738023935528005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.752310646043057</v>
+      </c>
+      <c r="N16">
+        <v>1.707033234888542</v>
+      </c>
+      <c r="O16">
+        <v>3.732253396308892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.928580049771483</v>
+        <v>6.103423331345084</v>
       </c>
       <c r="C17">
-        <v>0.4888130806458832</v>
+        <v>1.687156216245171</v>
       </c>
       <c r="D17">
-        <v>0.3072573943894525</v>
+        <v>0.4203258451255749</v>
       </c>
       <c r="E17">
-        <v>0.1213074889843142</v>
+        <v>0.1039499603379248</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.273939580508085</v>
+        <v>0.000774751532553803</v>
       </c>
       <c r="H17">
-        <v>8.66979790741027</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.022199582364129</v>
       </c>
       <c r="K17">
-        <v>0.7352973180498878</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2117142499087308</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.830101635359604</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.674500399252608</v>
+      </c>
+      <c r="N17">
+        <v>1.701557796783561</v>
+      </c>
+      <c r="O17">
+        <v>3.595265544236526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.838488182906474</v>
+        <v>5.936586488747764</v>
       </c>
       <c r="C18">
-        <v>0.4726969976829309</v>
+        <v>1.63995482214591</v>
       </c>
       <c r="D18">
-        <v>0.2982879670605314</v>
+        <v>0.4120252052495772</v>
       </c>
       <c r="E18">
-        <v>0.1182707614321004</v>
+        <v>0.102307202471124</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.158544391483332</v>
+        <v>0.000777694730060751</v>
       </c>
       <c r="H18">
-        <v>8.441353886784981</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02212550926421208</v>
       </c>
       <c r="K18">
-        <v>0.7121349536277819</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.205695661502169</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8053878525449178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.630329273914612</v>
+      </c>
+      <c r="N18">
+        <v>1.698877346960927</v>
+      </c>
+      <c r="O18">
+        <v>3.517888389671214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.808255784701203</v>
+        <v>5.880433496114506</v>
       </c>
       <c r="C19">
-        <v>0.4672996739201949</v>
+        <v>1.624072556755152</v>
       </c>
       <c r="D19">
-        <v>0.2952725011411985</v>
+        <v>0.4092373771050291</v>
       </c>
       <c r="E19">
-        <v>0.1172491979382748</v>
+        <v>0.1017561864269929</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.119737127852659</v>
+        <v>0.0007786916557275259</v>
       </c>
       <c r="H19">
-        <v>8.364530675315393</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02210110943481247</v>
       </c>
       <c r="K19">
-        <v>0.704365746397734</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.203672594432625</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7970883714256942</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.615468809043819</v>
+      </c>
+      <c r="N19">
+        <v>1.698047086380527</v>
+      </c>
+      <c r="O19">
+        <v>3.491921205237105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.945386817367933</v>
+        <v>6.134464503721176</v>
       </c>
       <c r="C20">
-        <v>0.491824917661944</v>
+        <v>1.695940604139537</v>
       </c>
       <c r="D20">
-        <v>0.3089279280184911</v>
+        <v>0.4218731048076165</v>
       </c>
       <c r="E20">
-        <v>0.1218727585233594</v>
+        <v>0.1042565190594438</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.295425812905307</v>
+        <v>0.0007742069610937286</v>
       </c>
       <c r="H20">
-        <v>8.71233455994917</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02221362004549832</v>
       </c>
       <c r="K20">
-        <v>0.7396200043231076</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2128353589286505</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8347089750948342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.682721843752645</v>
+      </c>
+      <c r="N20">
+        <v>1.702091356871762</v>
+      </c>
+      <c r="O20">
+        <v>3.609698927339224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.427586516108818</v>
+        <v>7.014006586159155</v>
       </c>
       <c r="C21">
-        <v>0.5789675490031811</v>
+        <v>1.945146912663517</v>
       </c>
       <c r="D21">
-        <v>0.3565039985852394</v>
+        <v>0.4660617234399638</v>
       </c>
       <c r="E21">
-        <v>0.1379292906119431</v>
+        <v>0.1130532936321416</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.906635992716133</v>
+        <v>0.0007591379745360476</v>
       </c>
       <c r="H21">
-        <v>9.922484626675498</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02264240202076095</v>
       </c>
       <c r="K21">
-        <v>0.8638741969392569</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2447813592675203</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9664941804584544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.916055538740807</v>
+      </c>
+      <c r="N21">
+        <v>1.72154035268106</v>
+      </c>
+      <c r="O21">
+        <v>4.023242221632643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.762245132151293</v>
+        <v>7.611814555445733</v>
       </c>
       <c r="C22">
-        <v>0.6402946759349675</v>
+        <v>2.114879544914913</v>
       </c>
       <c r="D22">
-        <v>0.3891383852664205</v>
+        <v>0.4964445855077031</v>
       </c>
       <c r="E22">
-        <v>0.1488948603418194</v>
+        <v>0.119143194572878</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.325178894318185</v>
+        <v>0.000749250070835912</v>
       </c>
       <c r="H22">
-        <v>10.75129106786329</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02296500665132584</v>
       </c>
       <c r="K22">
-        <v>0.9503788174935721</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2667081937640319</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.057505770846035</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2.075040372828482</v>
+      </c>
+      <c r="N22">
+        <v>1.739256248701622</v>
+      </c>
+      <c r="O22">
+        <v>4.309075882899606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.581591023452916</v>
+        <v>7.290398918365895</v>
       </c>
       <c r="C23">
-        <v>0.6071017394083356</v>
+        <v>2.023584926623244</v>
       </c>
       <c r="D23">
-        <v>0.3715598461324561</v>
+        <v>0.4800763217471626</v>
       </c>
       <c r="E23">
-        <v>0.1429932233762123</v>
+        <v>0.1158585156197418</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.099796875266179</v>
+        <v>0.0007545337649859735</v>
       </c>
       <c r="H23">
-        <v>10.30497425545826</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02278862961479611</v>
       </c>
       <c r="K23">
-        <v>0.9036545191139709</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2548962917600619</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.008421629734684</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.989523531447219</v>
+      </c>
+      <c r="N23">
+        <v>1.729298034508105</v>
+      </c>
+      <c r="O23">
+        <v>4.154937059993671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.937783424312499</v>
+        <v>6.120424668328326</v>
       </c>
       <c r="C24">
-        <v>0.4904621511521441</v>
+        <v>1.691967362562195</v>
       </c>
       <c r="D24">
-        <v>0.3081722829847138</v>
+        <v>0.4211731736307343</v>
       </c>
       <c r="E24">
-        <v>0.1216170781342498</v>
+        <v>0.1041178284323543</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.285707007507597</v>
+        <v>0.0007744531533477872</v>
       </c>
       <c r="H24">
-        <v>8.693094037917859</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02220726102880732</v>
       </c>
       <c r="K24">
-        <v>0.7376643511933452</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2123282331809691</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.83262473003753</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.67900318836962</v>
+      </c>
+      <c r="N24">
+        <v>1.701848686957135</v>
+      </c>
+      <c r="O24">
+        <v>3.60316933023924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.306050819967879</v>
+        <v>4.935321262677348</v>
       </c>
       <c r="C25">
-        <v>0.3784161651875024</v>
+        <v>1.357081421380769</v>
       </c>
       <c r="D25">
-        <v>0.2447528229499198</v>
+        <v>0.3628091705067078</v>
       </c>
       <c r="E25">
-        <v>0.1000878999537349</v>
+        <v>0.09263913437218108</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.468572379560925</v>
+        <v>0.0007960056222545584</v>
       </c>
       <c r="H25">
-        <v>7.075669510199731</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02173447952974961</v>
       </c>
       <c r="K25">
-        <v>0.5755567178965464</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1698111007223382</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6587565807246278</v>
+        <v>1.365872677328881</v>
+      </c>
+      <c r="N25">
+        <v>1.689859244372869</v>
+      </c>
+      <c r="O25">
+        <v>3.060978146699</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.109301449491909</v>
+        <v>3.599706568540171</v>
       </c>
       <c r="C2">
-        <v>1.124185085657871</v>
+        <v>0.6279158467578441</v>
       </c>
       <c r="D2">
-        <v>0.323132707737301</v>
+        <v>0.2258985597013634</v>
       </c>
       <c r="E2">
-        <v>0.08495780993645852</v>
+        <v>0.04141398953557207</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008121453011633584</v>
+        <v>1.636002790053311</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.995705378509399</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.8957362380253144</v>
       </c>
       <c r="J2">
-        <v>0.02149442749212227</v>
+        <v>0.02298070606154923</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4879577689357291</v>
       </c>
       <c r="M2">
-        <v>1.148650158436837</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.692749087086852</v>
+        <v>0.8864519785044322</v>
       </c>
       <c r="O2">
-        <v>2.694941698370499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.570773412915457</v>
+        <v>3.147523128513228</v>
       </c>
       <c r="C3">
-        <v>0.9725344493653267</v>
+        <v>0.5423134244500147</v>
       </c>
       <c r="D3">
-        <v>0.2978423200679856</v>
+        <v>0.2125189901586282</v>
       </c>
       <c r="E3">
-        <v>0.08013364555707625</v>
+        <v>0.04133012679321357</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008233376532804648</v>
+        <v>1.519977195808707</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9514833453945073</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.8647265359711156</v>
       </c>
       <c r="J3">
-        <v>0.02138937768683213</v>
+        <v>0.02169150204970016</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4404491567112672</v>
       </c>
       <c r="M3">
-        <v>1.007600382877122</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.700660396057984</v>
+        <v>0.9450064309535327</v>
       </c>
       <c r="O3">
-        <v>2.462660029535215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.248462183491256</v>
+        <v>2.873450907921324</v>
       </c>
       <c r="C4">
-        <v>0.881826344618645</v>
+        <v>0.4903253493274917</v>
       </c>
       <c r="D4">
-        <v>0.2829760975324405</v>
+        <v>0.2046388436287998</v>
       </c>
       <c r="E4">
-        <v>0.07733244318746557</v>
+        <v>0.04132346434161427</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008303590163051038</v>
+        <v>1.452486452882084</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9263717573203962</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.847734017714167</v>
       </c>
       <c r="J4">
-        <v>0.02135061468062283</v>
+        <v>0.02090292951240258</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4119580709151478</v>
       </c>
       <c r="M4">
-        <v>0.9234416551804685</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.70808073224174</v>
+        <v>0.9824434317347812</v>
       </c>
       <c r="O4">
-        <v>2.326469606533635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.11893537725615</v>
+        <v>2.762553867047416</v>
       </c>
       <c r="C5">
-        <v>0.8453827173527202</v>
+        <v>0.4692608387655355</v>
       </c>
       <c r="D5">
-        <v>0.277067913978712</v>
+        <v>0.2015062765339337</v>
       </c>
       <c r="E5">
-        <v>0.07622778927271412</v>
+        <v>0.04133166001606892</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008332609276649843</v>
+        <v>1.425851038574194</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9166169107055424</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.8412901104244668</v>
       </c>
       <c r="J5">
-        <v>0.02134093704544249</v>
+        <v>0.02058199324871346</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4005033126958608</v>
       </c>
       <c r="M5">
-        <v>0.8896836117469036</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.711699797081067</v>
+        <v>0.9980606299397063</v>
       </c>
       <c r="O5">
-        <v>2.272410321107387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.097529657869813</v>
+        <v>2.744184180474122</v>
       </c>
       <c r="C6">
-        <v>0.8393604310504088</v>
+        <v>0.465769770111109</v>
       </c>
       <c r="D6">
-        <v>0.2760954671593367</v>
+        <v>0.2009907115039482</v>
       </c>
       <c r="E6">
-        <v>0.07604649062215074</v>
+        <v>0.04133366977790409</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008337453285533592</v>
+        <v>1.421478555279506</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9150250447509904</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.8402481838489138</v>
       </c>
       <c r="J6">
-        <v>0.02133969000247937</v>
+        <v>0.02052871752887953</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3986102317348355</v>
       </c>
       <c r="M6">
-        <v>0.8841084448106713</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.712335349160952</v>
+        <v>1.000675344602232</v>
       </c>
       <c r="O6">
-        <v>2.263515906527061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.246708330705815</v>
+        <v>2.871952251583025</v>
       </c>
       <c r="C7">
-        <v>0.8813328499281283</v>
+        <v>0.4900408047264477</v>
       </c>
       <c r="D7">
-        <v>0.2828958313396868</v>
+        <v>0.2045962853278809</v>
       </c>
       <c r="E7">
-        <v>0.07731740067064408</v>
+        <v>0.04132353115410581</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008303979841155748</v>
+        <v>1.452123820834942</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9262383075295872</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.8476452100427707</v>
       </c>
       <c r="J7">
-        <v>0.0213504598305132</v>
+        <v>0.02089860001145105</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4118029773902094</v>
       </c>
       <c r="M7">
-        <v>0.9229843037838492</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.70812719144719</v>
+        <v>0.9826526028777458</v>
       </c>
       <c r="O7">
-        <v>2.325734937484398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.92170546143393</v>
+        <v>3.442984898191469</v>
       </c>
       <c r="C8">
-        <v>1.071342823363636</v>
+        <v>0.5982670581389584</v>
       </c>
       <c r="D8">
-        <v>0.3142645906345081</v>
+        <v>0.2212122756241399</v>
       </c>
       <c r="E8">
-        <v>0.08325876849070823</v>
+        <v>0.04137554299870061</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008159754406690608</v>
+        <v>1.595171892505164</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.9800121978970537</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.8845977306480393</v>
       </c>
       <c r="J8">
-        <v>0.02145263932126618</v>
+        <v>0.02253534996357232</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4714262369886626</v>
       </c>
       <c r="M8">
-        <v>1.099458882149001</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.694913675906903</v>
+        <v>0.9063260243992843</v>
       </c>
       <c r="O8">
-        <v>2.613402939451078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.326129538863711</v>
+        <v>4.596488324526433</v>
       </c>
       <c r="C9">
-        <v>1.467411579700411</v>
+        <v>0.8161754806209274</v>
       </c>
       <c r="D9">
-        <v>0.3818886611278742</v>
+        <v>0.2567294028628879</v>
       </c>
       <c r="E9">
-        <v>0.09637127876558793</v>
+        <v>0.04185106137514438</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007887163179321687</v>
+        <v>1.909154509172879</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.103379561922935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.9749940286391805</v>
       </c>
       <c r="J9">
-        <v>0.02187548891267532</v>
+        <v>0.02578598267152721</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5944945613007349</v>
       </c>
       <c r="M9">
-        <v>1.468957774062616</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.691874315344805</v>
+        <v>0.7690106333463991</v>
       </c>
       <c r="O9">
-        <v>3.237727765732828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.430862907335438</v>
+        <v>5.472854432876034</v>
       </c>
       <c r="C10">
-        <v>1.779854830305794</v>
+        <v>0.9814997224358137</v>
       </c>
       <c r="D10">
-        <v>0.4366909502527108</v>
+        <v>0.2850359171580408</v>
       </c>
       <c r="E10">
-        <v>0.1071976283071621</v>
+        <v>0.04245544115098987</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007690529789951042</v>
+        <v>2.165962204417042</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.207594882768319</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.054932579826897</v>
       </c>
       <c r="J10">
-        <v>0.02235156475087408</v>
+        <v>0.02822600424044452</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.689829630381297</v>
       </c>
       <c r="M10">
-        <v>1.761272377368556</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.707724119371974</v>
+        <v>0.6765509695884013</v>
       </c>
       <c r="O10">
-        <v>3.748085518289088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.95575399914253</v>
+        <v>5.879914400994153</v>
       </c>
       <c r="C11">
-        <v>1.928623169538412</v>
+        <v>1.058293553084923</v>
       </c>
       <c r="D11">
-        <v>0.4631154489836717</v>
+        <v>0.2985001957697335</v>
       </c>
       <c r="E11">
-        <v>0.1124644327413797</v>
+        <v>0.04279260639297</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007601158612699166</v>
+        <v>2.289909230146066</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.258624359518308</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.09488960933578</v>
       </c>
       <c r="J11">
-        <v>0.02261224916771276</v>
+        <v>0.02935416126049972</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.7345628713946155</v>
       </c>
       <c r="M11">
-        <v>1.900579844748265</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.72000259415438</v>
+        <v>0.6365437691124836</v>
       </c>
       <c r="O11">
-        <v>3.995589037521029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.158391870429398</v>
+        <v>6.035462543638573</v>
       </c>
       <c r="C12">
-        <v>1.986114579376363</v>
+        <v>1.087643989018545</v>
       </c>
       <c r="D12">
-        <v>0.4733756468420722</v>
+        <v>0.3036932547459372</v>
       </c>
       <c r="E12">
-        <v>0.1145164314965434</v>
+        <v>0.04292987304223317</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007567255446606068</v>
+        <v>2.338005910855571</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.278532169933328</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.110598815504062</v>
       </c>
       <c r="J12">
-        <v>0.02271814645178516</v>
+        <v>0.02978463676620891</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.7517262281600381</v>
       </c>
       <c r="M12">
-        <v>1.954426468801969</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.725498512589439</v>
+        <v>0.6217109931442018</v>
       </c>
       <c r="O12">
-        <v>4.091938748719997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.114566078933535</v>
+        <v>6.001896686776377</v>
       </c>
       <c r="C13">
-        <v>1.973677728469227</v>
+        <v>1.081310102022258</v>
       </c>
       <c r="D13">
-        <v>0.471153943772407</v>
+        <v>0.3025704663164674</v>
       </c>
       <c r="E13">
-        <v>0.1140717852441995</v>
+        <v>0.0428998727530292</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007574561060993275</v>
+        <v>2.327593469465768</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.274217602638487</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.107188774240711</v>
       </c>
       <c r="J13">
-        <v>0.02269500512180578</v>
+        <v>0.02969176956088759</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.7480193625673053</v>
       </c>
       <c r="M13">
-        <v>1.942777690972548</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.724275114292453</v>
+        <v>0.6248910193347701</v>
       </c>
       <c r="O13">
-        <v>4.071063805751407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.972343295602684</v>
+        <v>5.892682110813155</v>
       </c>
       <c r="C14">
-        <v>1.933328559404231</v>
+        <v>1.060702555166017</v>
       </c>
       <c r="D14">
-        <v>0.4639542262532359</v>
+        <v>0.2989254783655326</v>
       </c>
       <c r="E14">
-        <v>0.1126320442306934</v>
+        <v>0.0428037032921047</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007598371042594733</v>
+        <v>2.293842074887039</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.260250092567759</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.096170044946263</v>
       </c>
       <c r="J14">
-        <v>0.02262081210641398</v>
+        <v>0.02938950722441902</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.7359702553281409</v>
       </c>
       <c r="M14">
-        <v>1.904986742126823</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.720437031958923</v>
+        <v>0.6353169787094366</v>
       </c>
       <c r="O14">
-        <v>4.003460480638552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.885753799183931</v>
+        <v>5.825973993347759</v>
       </c>
       <c r="C15">
-        <v>1.908770725289457</v>
+        <v>1.048116371163957</v>
       </c>
       <c r="D15">
-        <v>0.459578522117738</v>
+        <v>0.2967054297953382</v>
       </c>
       <c r="E15">
-        <v>0.1117579355209983</v>
+        <v>0.04274606577736328</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007612945153460405</v>
+        <v>2.27332383442706</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.251772655855888</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.089498027505414</v>
       </c>
       <c r="J15">
-        <v>0.02257632955474342</v>
+        <v>0.02920480907723899</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.7286198543967686</v>
       </c>
       <c r="M15">
-        <v>1.881987179269345</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.718200179390777</v>
+        <v>0.6417451648829076</v>
       </c>
       <c r="O15">
-        <v>3.96240720694351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.397063361495384</v>
+        <v>5.446437310072611</v>
       </c>
       <c r="C16">
-        <v>1.770282413013717</v>
+        <v>0.9765164827146293</v>
       </c>
       <c r="D16">
-        <v>0.4349972889432081</v>
+        <v>0.2841686421686802</v>
       </c>
       <c r="E16">
-        <v>0.10686099429142</v>
+        <v>0.04243471205000304</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007696366159555339</v>
+        <v>2.158016615779644</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.204338104225059</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.052398703568713</v>
       </c>
       <c r="J16">
-        <v>0.02233548431885879</v>
+        <v>0.02815269626368178</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.6869359587615662</v>
       </c>
       <c r="M16">
-        <v>1.752310646043057</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.707033234888542</v>
+        <v>0.6792086594995208</v>
       </c>
       <c r="O16">
-        <v>3.732253396308892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.103423331345084</v>
+        <v>5.215886919965044</v>
       </c>
       <c r="C17">
-        <v>1.687156216245171</v>
+        <v>0.9330271327567345</v>
       </c>
       <c r="D17">
-        <v>0.4203258451255749</v>
+        <v>0.2766349383898898</v>
       </c>
       <c r="E17">
-        <v>0.1039499603379248</v>
+        <v>0.04226007978460977</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000774751532553803</v>
+        <v>2.089196064884817</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.176208859299493</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.030601365923573</v>
       </c>
       <c r="J17">
-        <v>0.022199582364129</v>
+        <v>0.02751235418308617</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.6617324627466132</v>
       </c>
       <c r="M17">
-        <v>1.674500399252608</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.701557796783561</v>
+        <v>0.7027319328723269</v>
       </c>
       <c r="O17">
-        <v>3.595265544236526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.936586488747764</v>
+        <v>5.084057782945649</v>
       </c>
       <c r="C18">
-        <v>1.63995482214591</v>
+        <v>0.908159788968959</v>
       </c>
       <c r="D18">
-        <v>0.4120252052495772</v>
+        <v>0.2723563926190167</v>
       </c>
       <c r="E18">
-        <v>0.102307202471124</v>
+        <v>0.04216545104659986</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000777694730060751</v>
+        <v>2.050273813748902</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.160366329528472</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.018398175898589</v>
       </c>
       <c r="J18">
-        <v>0.02212550926421208</v>
+        <v>0.02714571378297492</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.6473627163978506</v>
       </c>
       <c r="M18">
-        <v>1.630329273914612</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.698877346960927</v>
+        <v>0.7164537043099575</v>
       </c>
       <c r="O18">
-        <v>3.517888389671214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.880433496114506</v>
+        <v>5.039550602052998</v>
       </c>
       <c r="C19">
-        <v>1.624072556755152</v>
+        <v>0.8997641070772033</v>
       </c>
       <c r="D19">
-        <v>0.4092373771050291</v>
+        <v>0.2709168499095824</v>
       </c>
       <c r="E19">
-        <v>0.1017561864269929</v>
+        <v>0.04213439171807387</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007786916557275259</v>
+        <v>2.037205123806757</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.155058332435345</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.014321992912265</v>
       </c>
       <c r="J19">
-        <v>0.02210110943481247</v>
+        <v>0.02702184345959324</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.6425183273464938</v>
       </c>
       <c r="M19">
-        <v>1.615468809043819</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.698047086380527</v>
+        <v>0.7211319779504297</v>
       </c>
       <c r="O19">
-        <v>3.491921205237105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.134464503721176</v>
+        <v>5.240347601563315</v>
       </c>
       <c r="C20">
-        <v>1.695940604139537</v>
+        <v>0.9376411889068379</v>
       </c>
       <c r="D20">
-        <v>0.4218731048076165</v>
+        <v>0.2774311902974915</v>
       </c>
       <c r="E20">
-        <v>0.1042565190594438</v>
+        <v>0.04227806342151652</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007742069610937286</v>
+        <v>2.096452729227167</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.179167986191771</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.032886730730624</v>
       </c>
       <c r="J20">
-        <v>0.02221362004549832</v>
+        <v>0.02758034265181131</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.6644021215342804</v>
       </c>
       <c r="M20">
-        <v>1.682721843752645</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.702091356871762</v>
+        <v>0.7002078387122257</v>
       </c>
       <c r="O20">
-        <v>3.609698927339224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.014006586159155</v>
+        <v>5.924721316850196</v>
       </c>
       <c r="C21">
-        <v>1.945146912663517</v>
+        <v>1.066747795286176</v>
       </c>
       <c r="D21">
-        <v>0.4660617234399638</v>
+        <v>0.2999934520302219</v>
       </c>
       <c r="E21">
-        <v>0.1130532936321416</v>
+        <v>0.04283168487878086</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007591379745360476</v>
+        <v>2.303723013195651</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.264336296221728</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.099390288844873</v>
       </c>
       <c r="J21">
-        <v>0.02264240202076095</v>
+        <v>0.02947819471265944</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.7395030591454628</v>
       </c>
       <c r="M21">
-        <v>1.916055538740807</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.72154035268106</v>
+        <v>0.6322458294483226</v>
       </c>
       <c r="O21">
-        <v>4.023242221632643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.611814555445733</v>
+        <v>6.380287038852032</v>
       </c>
       <c r="C22">
-        <v>2.114879544914913</v>
+        <v>1.152725160901639</v>
       </c>
       <c r="D22">
-        <v>0.4964445855077031</v>
+        <v>0.3152950570011654</v>
       </c>
       <c r="E22">
-        <v>0.119143194572878</v>
+        <v>0.04324975356322014</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000749250070835912</v>
+        <v>2.44602637347694</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.323437985162599</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.14625929522451</v>
       </c>
       <c r="J22">
-        <v>0.02296500665132584</v>
+        <v>0.03073795938794177</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7899058357999138</v>
       </c>
       <c r="M22">
-        <v>2.075040372828482</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.739256248701622</v>
+        <v>0.5896889694224114</v>
       </c>
       <c r="O22">
-        <v>4.309075882899606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.290398918365895</v>
+        <v>6.136313815010851</v>
       </c>
       <c r="C23">
-        <v>2.023584926623244</v>
+        <v>1.106675869093863</v>
       </c>
       <c r="D23">
-        <v>0.4800763217471626</v>
+        <v>0.3070738521086582</v>
       </c>
       <c r="E23">
-        <v>0.1158585156197418</v>
+        <v>0.04302124531690055</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007545337649859735</v>
+        <v>2.369401204828591</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.291556691984908</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.120910526981987</v>
       </c>
       <c r="J23">
-        <v>0.02278862961479611</v>
+        <v>0.03006358492655536</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.7628741700058868</v>
       </c>
       <c r="M23">
-        <v>1.989523531447219</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.729298034508105</v>
+        <v>0.6122242543109682</v>
       </c>
       <c r="O23">
-        <v>4.154937059993671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.120424668328326</v>
+        <v>5.229286707538108</v>
       </c>
       <c r="C24">
-        <v>1.691967362562195</v>
+        <v>0.9355547559223965</v>
       </c>
       <c r="D24">
-        <v>0.4211731736307343</v>
+        <v>0.2770710414585125</v>
       </c>
       <c r="E24">
-        <v>0.1041178284323543</v>
+        <v>0.04226991509559319</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007744531533477872</v>
+        <v>2.093169996702073</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.177829143770452</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.031852499017305</v>
       </c>
       <c r="J24">
-        <v>0.02220726102880732</v>
+        <v>0.02754960043869481</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.6631947968206759</v>
       </c>
       <c r="M24">
-        <v>1.67900318836962</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.701848686957135</v>
+        <v>0.7013483668001541</v>
       </c>
       <c r="O24">
-        <v>3.60316933023924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.935321262677348</v>
+        <v>4.280016061039021</v>
       </c>
       <c r="C25">
-        <v>1.357081421380769</v>
+        <v>0.756446475476082</v>
       </c>
       <c r="D25">
-        <v>0.3628091705067078</v>
+        <v>0.2467657961401528</v>
       </c>
       <c r="E25">
-        <v>0.09263913437218108</v>
+        <v>0.04167977208721041</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007960056222545584</v>
+        <v>1.820075226022027</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.067829486302628</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.9483677504306343</v>
       </c>
       <c r="J25">
-        <v>0.02173447952974961</v>
+        <v>0.02489962652477296</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5604295842275917</v>
       </c>
       <c r="M25">
-        <v>1.365872677328881</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.689859244372869</v>
+        <v>0.8047484755561705</v>
       </c>
       <c r="O25">
-        <v>3.060978146699</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.599706568540171</v>
+        <v>2.66296437963365</v>
       </c>
       <c r="C2">
-        <v>0.6279158467578441</v>
+        <v>0.2191847837540024</v>
       </c>
       <c r="D2">
-        <v>0.2258985597013634</v>
+        <v>0.4359309698886165</v>
       </c>
       <c r="E2">
-        <v>0.04141398953557207</v>
+        <v>0.1157484253495298</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.636002790053311</v>
+        <v>2.333094444815742</v>
       </c>
       <c r="H2">
-        <v>0.995705378509399</v>
+        <v>1.896143252811044</v>
       </c>
       <c r="I2">
-        <v>0.8957362380253144</v>
+        <v>1.704586808734895</v>
       </c>
       <c r="J2">
-        <v>0.02298070606154923</v>
+        <v>0.03259201963352965</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4879577689357291</v>
+        <v>0.6392722824210892</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8864519785044322</v>
+        <v>1.903177866949214</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.147523128513228</v>
+        <v>2.555238331714349</v>
       </c>
       <c r="C3">
-        <v>0.5423134244500147</v>
+        <v>0.1959627064659628</v>
       </c>
       <c r="D3">
-        <v>0.2125189901586282</v>
+        <v>0.4351887556438072</v>
       </c>
       <c r="E3">
-        <v>0.04133012679321357</v>
+        <v>0.1162624875942235</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.519977195808707</v>
+        <v>2.322344464658812</v>
       </c>
       <c r="H3">
-        <v>0.9514833453945073</v>
+        <v>1.898457203995122</v>
       </c>
       <c r="I3">
-        <v>0.8647265359711156</v>
+        <v>1.70953589583798</v>
       </c>
       <c r="J3">
-        <v>0.02169150204970016</v>
+        <v>0.03214406658179669</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4404491567112672</v>
+        <v>0.6309676664252208</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9450064309535327</v>
+        <v>1.926208370443058</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.873450907921324</v>
+        <v>2.490374876361443</v>
       </c>
       <c r="C4">
-        <v>0.4903253493274917</v>
+        <v>0.1817686166681938</v>
       </c>
       <c r="D4">
-        <v>0.2046388436287998</v>
+        <v>0.4349153733580664</v>
       </c>
       <c r="E4">
-        <v>0.04132346434161427</v>
+        <v>0.1166100709673517</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.452486452882084</v>
+        <v>2.317169472202892</v>
       </c>
       <c r="H4">
-        <v>0.9263717573203962</v>
+        <v>1.900815680177431</v>
       </c>
       <c r="I4">
-        <v>0.847734017714167</v>
+        <v>1.713471441166789</v>
       </c>
       <c r="J4">
-        <v>0.02090292951240258</v>
+        <v>0.03186413073662209</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4119580709151478</v>
+        <v>0.6261763290399927</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9824434317347812</v>
+        <v>1.941036271554639</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.762553867047416</v>
+        <v>2.464264800847332</v>
       </c>
       <c r="C5">
-        <v>0.4692608387655355</v>
+        <v>0.1760004084932234</v>
       </c>
       <c r="D5">
-        <v>0.2015062765339337</v>
+        <v>0.4348498424295144</v>
       </c>
       <c r="E5">
-        <v>0.04133166001606892</v>
+        <v>0.1167597601856318</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.425851038574194</v>
+        <v>2.315418145711604</v>
       </c>
       <c r="H5">
-        <v>0.9166169107055424</v>
+        <v>1.902012305656655</v>
       </c>
       <c r="I5">
-        <v>0.8412901104244668</v>
+        <v>1.715300336754034</v>
       </c>
       <c r="J5">
-        <v>0.02058199324871346</v>
+        <v>0.03174881808051921</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4005033126958608</v>
+        <v>0.6243012043928218</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9980606299397063</v>
+        <v>1.947251390730739</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.744184180474122</v>
+        <v>2.459948717309828</v>
       </c>
       <c r="C6">
-        <v>0.465769770111109</v>
+        <v>0.1750435628868843</v>
       </c>
       <c r="D6">
-        <v>0.2009907115039482</v>
+        <v>0.4348417325052196</v>
       </c>
       <c r="E6">
-        <v>0.04133366977790409</v>
+        <v>0.116785102314533</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.421478555279506</v>
+        <v>2.315148905682022</v>
       </c>
       <c r="H6">
-        <v>0.9150250447509904</v>
+        <v>1.902225222044791</v>
       </c>
       <c r="I6">
-        <v>0.8402481838489138</v>
+        <v>1.715617609835633</v>
       </c>
       <c r="J6">
-        <v>0.02052871752887953</v>
+        <v>0.03172959562437683</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3986102317348355</v>
+        <v>0.6239945153631368</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000675344602232</v>
+        <v>1.948293828827854</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.871952251583025</v>
+        <v>2.490021441401211</v>
       </c>
       <c r="C7">
-        <v>0.4900408047264477</v>
+        <v>0.1816907600549769</v>
       </c>
       <c r="D7">
-        <v>0.2045962853278809</v>
+        <v>0.4349143038077585</v>
       </c>
       <c r="E7">
-        <v>0.04132353115410581</v>
+        <v>0.1166120571326665</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.452123820834942</v>
+        <v>2.31714440684604</v>
       </c>
       <c r="H7">
-        <v>0.9262383075295872</v>
+        <v>1.900830865010107</v>
       </c>
       <c r="I7">
-        <v>0.8476452100427707</v>
+        <v>1.713495195260677</v>
       </c>
       <c r="J7">
-        <v>0.02089860001145105</v>
+        <v>0.03186258060519975</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4118029773902094</v>
+        <v>0.6261507271204891</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9826526028777458</v>
+        <v>1.941119392056188</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.442984898191469</v>
+        <v>2.625554716407066</v>
       </c>
       <c r="C8">
-        <v>0.5982670581389584</v>
+        <v>0.2111643341877993</v>
       </c>
       <c r="D8">
-        <v>0.2212122756241399</v>
+        <v>0.4356372223036402</v>
       </c>
       <c r="E8">
-        <v>0.04137554299870061</v>
+        <v>0.1159190510276282</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.595171892505164</v>
+        <v>2.329091403857774</v>
       </c>
       <c r="H8">
-        <v>0.9800121978970537</v>
+        <v>1.896746318033649</v>
       </c>
       <c r="I8">
-        <v>0.8845977306480393</v>
+        <v>1.706106895966691</v>
       </c>
       <c r="J8">
-        <v>0.02253534996357232</v>
+        <v>0.03243857639249548</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4714262369886626</v>
+        <v>0.6363449780426578</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9063260243992843</v>
+        <v>1.910976097265702</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.596488324526433</v>
+        <v>2.901504321269215</v>
       </c>
       <c r="C9">
-        <v>0.8161754806209274</v>
+        <v>0.2694840502115312</v>
       </c>
       <c r="D9">
-        <v>0.2567294028628879</v>
+        <v>0.4385012184812638</v>
       </c>
       <c r="E9">
-        <v>0.04185106137514438</v>
+        <v>0.1148130091162471</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.909154509172879</v>
+        <v>2.363877519090863</v>
       </c>
       <c r="H9">
-        <v>1.103379561922935</v>
+        <v>1.896190912105652</v>
       </c>
       <c r="I9">
-        <v>0.9749940286391805</v>
+        <v>1.6987526035361</v>
       </c>
       <c r="J9">
-        <v>0.02578598267152721</v>
+        <v>0.03352963724453062</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5944945613007349</v>
+        <v>0.6587794204554172</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7690106333463991</v>
+        <v>1.857322324484708</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.472854432876034</v>
+        <v>3.110479657482813</v>
       </c>
       <c r="C10">
-        <v>0.9814997224358137</v>
+        <v>0.3126702124463066</v>
       </c>
       <c r="D10">
-        <v>0.2850359171580408</v>
+        <v>0.4414874522650507</v>
       </c>
       <c r="E10">
-        <v>0.04245544115098987</v>
+        <v>0.1141538948736383</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.165962204417042</v>
+        <v>2.396431129080014</v>
       </c>
       <c r="H10">
-        <v>1.207594882768319</v>
+        <v>1.900349989850895</v>
       </c>
       <c r="I10">
-        <v>1.054932579826897</v>
+        <v>1.697726602446352</v>
       </c>
       <c r="J10">
-        <v>0.02822600424044452</v>
+        <v>0.03430832130875672</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.689829630381297</v>
+        <v>0.6767570713498259</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6765509695884013</v>
+        <v>1.821235928485342</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.879914400994153</v>
+        <v>3.206911534972846</v>
       </c>
       <c r="C11">
-        <v>1.058293553084923</v>
+        <v>0.3323949632543872</v>
       </c>
       <c r="D11">
-        <v>0.2985001957697335</v>
+        <v>0.4430376509270815</v>
       </c>
       <c r="E11">
-        <v>0.04279260639297</v>
+        <v>0.113887232325057</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.289909230146066</v>
+        <v>2.412775933940651</v>
       </c>
       <c r="H11">
-        <v>1.258624359518308</v>
+        <v>1.903239005247258</v>
       </c>
       <c r="I11">
-        <v>1.09488960933578</v>
+        <v>1.698216622115623</v>
       </c>
       <c r="J11">
-        <v>0.02935416126049972</v>
+        <v>0.03465770625957276</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7345628713946155</v>
+        <v>0.6852616121299064</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6365437691124836</v>
+        <v>1.805544423714574</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.035462543638573</v>
+        <v>3.243624772620194</v>
       </c>
       <c r="C12">
-        <v>1.087643989018545</v>
+        <v>0.3398758848741181</v>
       </c>
       <c r="D12">
-        <v>0.3036932547459372</v>
+        <v>0.443652242917949</v>
       </c>
       <c r="E12">
-        <v>0.04292987304223317</v>
+        <v>0.1137910126250503</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.338005910855571</v>
+        <v>2.41918737133787</v>
       </c>
       <c r="H12">
-        <v>1.278532169933328</v>
+        <v>1.904476761281558</v>
       </c>
       <c r="I12">
-        <v>1.110598815504062</v>
+        <v>1.698540250615835</v>
       </c>
       <c r="J12">
-        <v>0.02978463676620891</v>
+        <v>0.03478932111286781</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7517262281600381</v>
+        <v>0.6885290632233989</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6217109931442018</v>
+        <v>1.799706801185794</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.001896686776377</v>
+        <v>3.235709178929142</v>
       </c>
       <c r="C13">
-        <v>1.081310102022258</v>
+        <v>0.3382642159252782</v>
       </c>
       <c r="D13">
-        <v>0.3025704663164674</v>
+        <v>0.4435186536603339</v>
       </c>
       <c r="E13">
-        <v>0.0428998727530292</v>
+        <v>0.1138115237382618</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.327593469465768</v>
+        <v>2.417796661128222</v>
       </c>
       <c r="H13">
-        <v>1.274217602638487</v>
+        <v>1.904203789023114</v>
       </c>
       <c r="I13">
-        <v>1.107188774240711</v>
+        <v>1.698464402920209</v>
       </c>
       <c r="J13">
-        <v>0.02969176956088759</v>
+        <v>0.03476100606491883</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7480193625673053</v>
+        <v>0.6878232698592512</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6248910193347701</v>
+        <v>1.80095939001068</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.892682110813155</v>
+        <v>3.209928016061781</v>
       </c>
       <c r="C14">
-        <v>1.060702555166017</v>
+        <v>0.333010189775905</v>
       </c>
       <c r="D14">
-        <v>0.2989254783655326</v>
+        <v>0.4430876613655954</v>
       </c>
       <c r="E14">
-        <v>0.0428037032921047</v>
+        <v>0.1138792209417545</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.293842074887039</v>
+        <v>2.41329895067733</v>
       </c>
       <c r="H14">
-        <v>1.260250092567759</v>
+        <v>1.903337953058724</v>
       </c>
       <c r="I14">
-        <v>1.096170044946263</v>
+        <v>1.698240477299734</v>
       </c>
       <c r="J14">
-        <v>0.02938950722441902</v>
+        <v>0.03466854807618347</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7359702553281409</v>
+        <v>0.6855294858555254</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6353169787094366</v>
+        <v>1.805062065039998</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.825973993347759</v>
+        <v>3.194161906270551</v>
       </c>
       <c r="C15">
-        <v>1.048116371163957</v>
+        <v>0.3297934621280376</v>
       </c>
       <c r="D15">
-        <v>0.2967054297953382</v>
+        <v>0.4428272557743185</v>
       </c>
       <c r="E15">
-        <v>0.04274606577736328</v>
+        <v>0.1139213069696403</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.27332383442706</v>
+        <v>2.410572920051749</v>
       </c>
       <c r="H15">
-        <v>1.251772655855888</v>
+        <v>1.902826335162985</v>
       </c>
       <c r="I15">
-        <v>1.089498027505414</v>
+        <v>1.698121311641145</v>
       </c>
       <c r="J15">
-        <v>0.02920480907723899</v>
+        <v>0.0346118252750216</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7286198543967686</v>
+        <v>0.6841305941760254</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6417451648829076</v>
+        <v>1.807588676587038</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.446437310072611</v>
+        <v>3.104205122347594</v>
       </c>
       <c r="C16">
-        <v>0.9765164827146293</v>
+        <v>0.3113827637002373</v>
       </c>
       <c r="D16">
-        <v>0.2841686421686802</v>
+        <v>0.4413900008866705</v>
       </c>
       <c r="E16">
-        <v>0.04243471205000304</v>
+        <v>0.1141719885032035</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.158016615779644</v>
+        <v>2.39539396300944</v>
       </c>
       <c r="H16">
-        <v>1.204338104225059</v>
+        <v>1.90018128072748</v>
       </c>
       <c r="I16">
-        <v>1.052398703568713</v>
+        <v>1.69771387243587</v>
       </c>
       <c r="J16">
-        <v>0.02815269626368178</v>
+        <v>0.03428539131010311</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6869359587615662</v>
+        <v>0.6762078502392228</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6792086594995208</v>
+        <v>1.82227600234997</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.215886919965044</v>
+        <v>3.049369812274165</v>
       </c>
       <c r="C17">
-        <v>0.9330271327567345</v>
+        <v>0.300108813004897</v>
       </c>
       <c r="D17">
-        <v>0.2766349383898898</v>
+        <v>0.4405573965393188</v>
       </c>
       <c r="E17">
-        <v>0.04226007978460977</v>
+        <v>0.1143342621149372</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.089196064884817</v>
+        <v>2.386476377887277</v>
       </c>
       <c r="H17">
-        <v>1.176208859299493</v>
+        <v>1.898814254414276</v>
       </c>
       <c r="I17">
-        <v>1.030601365923573</v>
+        <v>1.697709314461171</v>
       </c>
       <c r="J17">
-        <v>0.02751235418308617</v>
+        <v>0.03408389914442544</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6617324627466132</v>
+        <v>0.6714311252453342</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7027319328723269</v>
+        <v>1.83147190365691</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.084057782945649</v>
+        <v>3.01795875631359</v>
       </c>
       <c r="C18">
-        <v>0.908159788968959</v>
+        <v>0.293631772096262</v>
       </c>
       <c r="D18">
-        <v>0.2723563926190167</v>
+        <v>0.4400965529309104</v>
       </c>
       <c r="E18">
-        <v>0.04216545104659986</v>
+        <v>0.11443072050829</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.050273813748902</v>
+        <v>2.381491725849344</v>
       </c>
       <c r="H18">
-        <v>1.160366329528472</v>
+        <v>1.89812179922211</v>
       </c>
       <c r="I18">
-        <v>1.018398175898589</v>
+        <v>1.697796717279971</v>
       </c>
       <c r="J18">
-        <v>0.02714571378297492</v>
+        <v>0.03396754999474005</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6473627163978506</v>
+        <v>0.6687144014234008</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7164537043099575</v>
+        <v>1.836829309653082</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.039550602052998</v>
+        <v>3.00734563223557</v>
       </c>
       <c r="C19">
-        <v>0.8997641070772033</v>
+        <v>0.2914400285344527</v>
       </c>
       <c r="D19">
-        <v>0.2709168499095824</v>
+        <v>0.4399436192826016</v>
       </c>
       <c r="E19">
-        <v>0.04213439171807387</v>
+        <v>0.1144639163456436</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.037205123806757</v>
+        <v>2.379828793060057</v>
       </c>
       <c r="H19">
-        <v>1.155058332435345</v>
+        <v>1.897903448476427</v>
       </c>
       <c r="I19">
-        <v>1.014321992912265</v>
+        <v>1.697841757370739</v>
       </c>
       <c r="J19">
-        <v>0.02702184345959324</v>
+        <v>0.03392807761855465</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6425183273464938</v>
+        <v>0.6677998411754373</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7211319779504297</v>
+        <v>1.838654935616281</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.240347601563315</v>
+        <v>3.055193799108906</v>
       </c>
       <c r="C20">
-        <v>0.9376411889068379</v>
+        <v>0.3013081730864258</v>
       </c>
       <c r="D20">
-        <v>0.2774311902974915</v>
+        <v>0.4406441608131928</v>
       </c>
       <c r="E20">
-        <v>0.04227806342151652</v>
+        <v>0.1143166646797606</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.096452729227167</v>
+        <v>2.387410705948128</v>
       </c>
       <c r="H20">
-        <v>1.179167986191771</v>
+        <v>1.898950063792341</v>
       </c>
       <c r="I20">
-        <v>1.032886730730624</v>
+        <v>1.697700478991806</v>
       </c>
       <c r="J20">
-        <v>0.02758034265181131</v>
+        <v>0.03410539549414082</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6644021215342804</v>
+        <v>0.6719364359720856</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7002078387122257</v>
+        <v>1.830485927539685</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.924721316850196</v>
+        <v>3.217495234370119</v>
       </c>
       <c r="C21">
-        <v>1.066747795286176</v>
+        <v>0.3345531085038829</v>
       </c>
       <c r="D21">
-        <v>0.2999934520302219</v>
+        <v>0.443213506185117</v>
       </c>
       <c r="E21">
-        <v>0.04283168487878086</v>
+        <v>0.1138592075398641</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.303723013195651</v>
+        <v>2.414614002702479</v>
       </c>
       <c r="H21">
-        <v>1.264336296221728</v>
+        <v>1.90358836572878</v>
       </c>
       <c r="I21">
-        <v>1.099390288844873</v>
+        <v>1.698302498604917</v>
       </c>
       <c r="J21">
-        <v>0.02947819471265944</v>
+        <v>0.03469572389201048</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7395030591454628</v>
+        <v>0.6862019509350574</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6322458294483226</v>
+        <v>1.803854174292576</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.380287038852032</v>
+        <v>3.324714372418043</v>
       </c>
       <c r="C22">
-        <v>1.152725160901639</v>
+        <v>0.3563482293512834</v>
       </c>
       <c r="D22">
-        <v>0.3152950570011654</v>
+        <v>0.4450533917890596</v>
       </c>
       <c r="E22">
-        <v>0.04324975356322014</v>
+        <v>0.1135879708362317</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.44602637347694</v>
+        <v>2.433687539267254</v>
       </c>
       <c r="H22">
-        <v>1.323437985162599</v>
+        <v>1.907457821761369</v>
       </c>
       <c r="I22">
-        <v>1.14625929522451</v>
+        <v>1.699500955321099</v>
       </c>
       <c r="J22">
-        <v>0.03073795938794177</v>
+        <v>0.03507752097724648</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7899058357999138</v>
+        <v>0.6957990593580519</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5896889694224114</v>
+        <v>1.787057482901574</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.136313815010851</v>
+        <v>3.267384699185243</v>
       </c>
       <c r="C23">
-        <v>1.106675869093863</v>
+        <v>0.3447095057797469</v>
       </c>
       <c r="D23">
-        <v>0.3070738521086582</v>
+        <v>0.4440567109749196</v>
       </c>
       <c r="E23">
-        <v>0.04302124531690055</v>
+        <v>0.1137302003488543</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.369401204828591</v>
+        <v>2.423388796826202</v>
       </c>
       <c r="H23">
-        <v>1.291556691984908</v>
+        <v>1.905315811264359</v>
       </c>
       <c r="I23">
-        <v>1.120910526981987</v>
+        <v>1.698787495220856</v>
       </c>
       <c r="J23">
-        <v>0.03006358492655536</v>
+        <v>0.03487411399329332</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7628741700058868</v>
+        <v>0.6906518419048666</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6122242543109682</v>
+        <v>1.795966414370994</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.229286707538108</v>
+        <v>3.052560418012604</v>
       </c>
       <c r="C24">
-        <v>0.9355547559223965</v>
+        <v>0.3007659283850046</v>
       </c>
       <c r="D24">
-        <v>0.2770710414585125</v>
+        <v>0.4406048791418868</v>
       </c>
       <c r="E24">
-        <v>0.04226991509559319</v>
+        <v>0.1143246106206082</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.093169996702073</v>
+        <v>2.386987853420351</v>
       </c>
       <c r="H24">
-        <v>1.177829143770452</v>
+        <v>1.898888373254835</v>
       </c>
       <c r="I24">
-        <v>1.031852499017305</v>
+        <v>1.697704193126</v>
       </c>
       <c r="J24">
-        <v>0.02754960043869481</v>
+        <v>0.03409567857944218</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6631947968206759</v>
+        <v>0.6717078931736324</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7013483668001541</v>
+        <v>1.830931467566717</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.280016061039021</v>
+        <v>2.825760354295085</v>
       </c>
       <c r="C25">
-        <v>0.756446475476082</v>
+        <v>0.2536490347576148</v>
       </c>
       <c r="D25">
-        <v>0.2467657961401528</v>
+        <v>0.4375715617268838</v>
       </c>
       <c r="E25">
-        <v>0.04167977208721041</v>
+        <v>0.1150852171858912</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.820075226022027</v>
+        <v>2.353243593978647</v>
       </c>
       <c r="H25">
-        <v>1.067829486302628</v>
+        <v>1.895540799088479</v>
       </c>
       <c r="I25">
-        <v>0.9483677504306343</v>
+        <v>1.699975503799315</v>
       </c>
       <c r="J25">
-        <v>0.02489962652477296</v>
+        <v>0.03323853958393386</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5604295842275917</v>
+        <v>0.6524481643832587</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8047484755561705</v>
+        <v>1.871252251818374</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.66296437963365</v>
+        <v>3.599706568540171</v>
       </c>
       <c r="C2">
-        <v>0.2191847837540024</v>
+        <v>0.6279158467580999</v>
       </c>
       <c r="D2">
-        <v>0.4359309698886165</v>
+        <v>0.2258985597012355</v>
       </c>
       <c r="E2">
-        <v>0.1157484253495298</v>
+        <v>0.04141398953558806</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.333094444815742</v>
+        <v>1.63600279005334</v>
       </c>
       <c r="H2">
-        <v>1.896143252811044</v>
+        <v>0.9957053785095127</v>
       </c>
       <c r="I2">
-        <v>1.704586808734895</v>
+        <v>0.8957362380253073</v>
       </c>
       <c r="J2">
-        <v>0.03259201963352965</v>
+        <v>0.02298070606155989</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6392722824210892</v>
+        <v>0.4879577689356722</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.903177866949214</v>
+        <v>0.8864519785044322</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.555238331714349</v>
+        <v>3.147523128513228</v>
       </c>
       <c r="C3">
-        <v>0.1959627064659628</v>
+        <v>0.542313424449901</v>
       </c>
       <c r="D3">
-        <v>0.4351887556438072</v>
+        <v>0.2125189901588413</v>
       </c>
       <c r="E3">
-        <v>0.1162624875942235</v>
+        <v>0.04133012679321357</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.322344464658812</v>
+        <v>1.519977195808764</v>
       </c>
       <c r="H3">
-        <v>1.898457203995122</v>
+        <v>0.951483345394621</v>
       </c>
       <c r="I3">
-        <v>1.70953589583798</v>
+        <v>0.8647265359711511</v>
       </c>
       <c r="J3">
-        <v>0.03214406658179669</v>
+        <v>0.02169150204963621</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6309676664252208</v>
+        <v>0.4404491567113098</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.926208370443058</v>
+        <v>0.945006430953593</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.490374876361443</v>
+        <v>2.873450907921267</v>
       </c>
       <c r="C4">
-        <v>0.1817686166681938</v>
+        <v>0.4903253493276338</v>
       </c>
       <c r="D4">
-        <v>0.4349153733580664</v>
+        <v>0.2046388436287572</v>
       </c>
       <c r="E4">
-        <v>0.1166100709673517</v>
+        <v>0.04132346434159562</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.317169472202892</v>
+        <v>1.452486452882141</v>
       </c>
       <c r="H4">
-        <v>1.900815680177431</v>
+        <v>0.9263717573205383</v>
       </c>
       <c r="I4">
-        <v>1.713471441166789</v>
+        <v>0.8477340177141883</v>
       </c>
       <c r="J4">
-        <v>0.03186413073662209</v>
+        <v>0.02090292951254114</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6261763290399927</v>
+        <v>0.4119580709151336</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.941036271554639</v>
+        <v>0.9824434317347119</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.464264800847332</v>
+        <v>2.762553867047416</v>
       </c>
       <c r="C5">
-        <v>0.1760004084932234</v>
+        <v>0.4692608387655071</v>
       </c>
       <c r="D5">
-        <v>0.4348498424295144</v>
+        <v>0.201506276534019</v>
       </c>
       <c r="E5">
-        <v>0.1167597601856318</v>
+        <v>0.0413316600160698</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.315418145711604</v>
+        <v>1.425851038574251</v>
       </c>
       <c r="H5">
-        <v>1.902012305656655</v>
+        <v>0.9166169107054429</v>
       </c>
       <c r="I5">
-        <v>1.715300336754034</v>
+        <v>0.8412901104244668</v>
       </c>
       <c r="J5">
-        <v>0.03174881808051921</v>
+        <v>0.02058199324864418</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6243012043928218</v>
+        <v>0.4005033126958892</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.947251390730739</v>
+        <v>0.998060629939701</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.459948717309828</v>
+        <v>2.744184180474065</v>
       </c>
       <c r="C6">
-        <v>0.1750435628868843</v>
+        <v>0.4657697701110806</v>
       </c>
       <c r="D6">
-        <v>0.4348417325052196</v>
+        <v>0.200990711503735</v>
       </c>
       <c r="E6">
-        <v>0.116785102314533</v>
+        <v>0.04133366977792363</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.315148905682022</v>
+        <v>1.421478555279521</v>
       </c>
       <c r="H6">
-        <v>1.902225222044791</v>
+        <v>0.9150250447509904</v>
       </c>
       <c r="I6">
-        <v>1.715617609835633</v>
+        <v>0.8402481838489066</v>
       </c>
       <c r="J6">
-        <v>0.03172959562437683</v>
+        <v>0.0205287175289115</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6239945153631368</v>
+        <v>0.3986102317348212</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.948293828827854</v>
+        <v>1.000675344602231</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.490021441401211</v>
+        <v>2.871952251583139</v>
       </c>
       <c r="C7">
-        <v>0.1816907600549769</v>
+        <v>0.4900408047265614</v>
       </c>
       <c r="D7">
-        <v>0.4349143038077585</v>
+        <v>0.2045962853280088</v>
       </c>
       <c r="E7">
-        <v>0.1166120571326665</v>
+        <v>0.04132353115412801</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.31714440684604</v>
+        <v>1.452123820834942</v>
       </c>
       <c r="H7">
-        <v>1.900830865010107</v>
+        <v>0.9262383075294736</v>
       </c>
       <c r="I7">
-        <v>1.713495195260677</v>
+        <v>0.8476452100428062</v>
       </c>
       <c r="J7">
-        <v>0.03186258060519975</v>
+        <v>0.02089860001150612</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6261507271204891</v>
+        <v>0.4118029773901526</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.941119392056188</v>
+        <v>0.9826526028777467</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.625554716407066</v>
+        <v>3.442984898191526</v>
       </c>
       <c r="C8">
-        <v>0.2111643341877993</v>
+        <v>0.59826705813893</v>
       </c>
       <c r="D8">
-        <v>0.4356372223036402</v>
+        <v>0.2212122756241683</v>
       </c>
       <c r="E8">
-        <v>0.1159190510276282</v>
+        <v>0.0413755429987166</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.329091403857774</v>
+        <v>1.595171892505221</v>
       </c>
       <c r="H8">
-        <v>1.896746318033649</v>
+        <v>0.9800121978970537</v>
       </c>
       <c r="I8">
-        <v>1.706106895966691</v>
+        <v>0.8845977306480535</v>
       </c>
       <c r="J8">
-        <v>0.03243857639249548</v>
+        <v>0.02253534996346573</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6363449780426578</v>
+        <v>0.4714262369887621</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.910976097265702</v>
+        <v>0.9063260243992843</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.901504321269215</v>
+        <v>4.596488324526433</v>
       </c>
       <c r="C9">
-        <v>0.2694840502115312</v>
+        <v>0.8161754806211263</v>
       </c>
       <c r="D9">
-        <v>0.4385012184812638</v>
+        <v>0.2567294028628879</v>
       </c>
       <c r="E9">
-        <v>0.1148130091162471</v>
+        <v>0.04185106137513905</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.363877519090863</v>
+        <v>1.909154509172907</v>
       </c>
       <c r="H9">
-        <v>1.896190912105652</v>
+        <v>1.103379561922935</v>
       </c>
       <c r="I9">
-        <v>1.6987526035361</v>
+        <v>0.9749940286391876</v>
       </c>
       <c r="J9">
-        <v>0.03352963724453062</v>
+        <v>0.02578598267150056</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6587794204554172</v>
+        <v>0.5944945613006496</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.857322324484708</v>
+        <v>0.7690106333463866</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.110479657482813</v>
+        <v>5.472854432875977</v>
       </c>
       <c r="C10">
-        <v>0.3126702124463066</v>
+        <v>0.9814997224357853</v>
       </c>
       <c r="D10">
-        <v>0.4414874522650507</v>
+        <v>0.2850359171582824</v>
       </c>
       <c r="E10">
-        <v>0.1141538948736383</v>
+        <v>0.04245544115098809</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.396431129080014</v>
+        <v>2.165962204416985</v>
       </c>
       <c r="H10">
-        <v>1.900349989850895</v>
+        <v>1.207594882768319</v>
       </c>
       <c r="I10">
-        <v>1.697726602446352</v>
+        <v>1.054932579826897</v>
       </c>
       <c r="J10">
-        <v>0.03430832130875672</v>
+        <v>0.02822600424051203</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6767570713498259</v>
+        <v>0.6898296303813538</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.821235928485342</v>
+        <v>0.6765509695884795</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.206911534972846</v>
+        <v>5.879914400994039</v>
       </c>
       <c r="C11">
-        <v>0.3323949632543872</v>
+        <v>1.058293553085207</v>
       </c>
       <c r="D11">
-        <v>0.4430376509270815</v>
+        <v>0.2985001957695061</v>
       </c>
       <c r="E11">
-        <v>0.113887232325057</v>
+        <v>0.04279260639297355</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.412775933940651</v>
+        <v>2.289909230146037</v>
       </c>
       <c r="H11">
-        <v>1.903239005247258</v>
+        <v>1.258624359518308</v>
       </c>
       <c r="I11">
-        <v>1.698216622115623</v>
+        <v>1.09488960933578</v>
       </c>
       <c r="J11">
-        <v>0.03465770625957276</v>
+        <v>0.02935416126057788</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6852616121299064</v>
+        <v>0.7345628713946297</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.805544423714574</v>
+        <v>0.6365437691124338</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.243624772620194</v>
+        <v>6.035462543638573</v>
       </c>
       <c r="C12">
-        <v>0.3398758848741181</v>
+        <v>1.087643989018432</v>
       </c>
       <c r="D12">
-        <v>0.443652242917949</v>
+        <v>0.3036932547459088</v>
       </c>
       <c r="E12">
-        <v>0.1137910126250503</v>
+        <v>0.04292987304224383</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.41918737133787</v>
+        <v>2.338005910855486</v>
       </c>
       <c r="H12">
-        <v>1.904476761281558</v>
+        <v>1.278532169933214</v>
       </c>
       <c r="I12">
-        <v>1.698540250615835</v>
+        <v>1.110598815504048</v>
       </c>
       <c r="J12">
-        <v>0.03478932111286781</v>
+        <v>0.02978463676624088</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6885290632233989</v>
+        <v>0.7517262281600381</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.799706801185794</v>
+        <v>0.6217109931441929</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.235709178929142</v>
+        <v>6.001896686776433</v>
       </c>
       <c r="C13">
-        <v>0.3382642159252782</v>
+        <v>1.081310102022258</v>
       </c>
       <c r="D13">
-        <v>0.4435186536603339</v>
+        <v>0.302570466316368</v>
       </c>
       <c r="E13">
-        <v>0.1138115237382618</v>
+        <v>0.04289987275304519</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.417796661128222</v>
+        <v>2.327593469465825</v>
       </c>
       <c r="H13">
-        <v>1.904203789023114</v>
+        <v>1.274217602638373</v>
       </c>
       <c r="I13">
-        <v>1.698464402920209</v>
+        <v>1.107188774240726</v>
       </c>
       <c r="J13">
-        <v>0.03476100606491883</v>
+        <v>0.02969176956084141</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6878232698592512</v>
+        <v>0.74801936256722</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.80095939001068</v>
+        <v>0.6248910193348038</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.209928016061781</v>
+        <v>5.892682110813041</v>
       </c>
       <c r="C14">
-        <v>0.333010189775905</v>
+        <v>1.060702555166188</v>
       </c>
       <c r="D14">
-        <v>0.4430876613655954</v>
+        <v>0.29892547836576</v>
       </c>
       <c r="E14">
-        <v>0.1138792209417545</v>
+        <v>0.0428037032921047</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.41329895067733</v>
+        <v>2.293842074887124</v>
       </c>
       <c r="H14">
-        <v>1.903337953058724</v>
+        <v>1.26025009256773</v>
       </c>
       <c r="I14">
-        <v>1.698240477299734</v>
+        <v>1.096170044946263</v>
       </c>
       <c r="J14">
-        <v>0.03466854807618347</v>
+        <v>0.02938950722441547</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6855294858555254</v>
+        <v>0.7359702553281693</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.805062065039998</v>
+        <v>0.6353169787094277</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.194161906270551</v>
+        <v>5.825973993347702</v>
       </c>
       <c r="C15">
-        <v>0.3297934621280376</v>
+        <v>1.0481163711639</v>
       </c>
       <c r="D15">
-        <v>0.4428272557743185</v>
+        <v>0.2967054297954519</v>
       </c>
       <c r="E15">
-        <v>0.1139213069696403</v>
+        <v>0.04274606577740236</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.410572920051749</v>
+        <v>2.273323834427032</v>
       </c>
       <c r="H15">
-        <v>1.902826335162985</v>
+        <v>1.251772655856001</v>
       </c>
       <c r="I15">
-        <v>1.698121311641145</v>
+        <v>1.0894980275054</v>
       </c>
       <c r="J15">
-        <v>0.0346118252750216</v>
+        <v>0.02920480907722478</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6841305941760254</v>
+        <v>0.7286198543967544</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.807588676587038</v>
+        <v>0.6417451648828827</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.104205122347594</v>
+        <v>5.446437310072724</v>
       </c>
       <c r="C16">
-        <v>0.3113827637002373</v>
+        <v>0.9765164827146009</v>
       </c>
       <c r="D16">
-        <v>0.4413900008866705</v>
+        <v>0.2841686421687939</v>
       </c>
       <c r="E16">
-        <v>0.1141719885032035</v>
+        <v>0.0424347120499764</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.39539396300944</v>
+        <v>2.158016615779644</v>
       </c>
       <c r="H16">
-        <v>1.90018128072748</v>
+        <v>1.204338104224917</v>
       </c>
       <c r="I16">
-        <v>1.69771387243587</v>
+        <v>1.052398703568699</v>
       </c>
       <c r="J16">
-        <v>0.03428539131010311</v>
+        <v>0.02815269626350947</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6762078502392228</v>
+        <v>0.6869359587615094</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.82227600234997</v>
+        <v>0.6792086594995137</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.049369812274165</v>
+        <v>5.215886919965158</v>
       </c>
       <c r="C17">
-        <v>0.300108813004897</v>
+        <v>0.9330271327569619</v>
       </c>
       <c r="D17">
-        <v>0.4405573965393188</v>
+        <v>0.2766349383901172</v>
       </c>
       <c r="E17">
-        <v>0.1143342621149372</v>
+        <v>0.042260079784608</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.386476377887277</v>
+        <v>2.089196064884874</v>
       </c>
       <c r="H17">
-        <v>1.898814254414276</v>
+        <v>1.176208859299521</v>
       </c>
       <c r="I17">
-        <v>1.697709314461171</v>
+        <v>1.030601365923573</v>
       </c>
       <c r="J17">
-        <v>0.03408389914442544</v>
+        <v>0.02751235418318743</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6714311252453342</v>
+        <v>0.6617324627466132</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.83147190365691</v>
+        <v>0.7027319328723056</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.01795875631359</v>
+        <v>5.084057782945592</v>
       </c>
       <c r="C18">
-        <v>0.293631772096262</v>
+        <v>0.9081597889692148</v>
       </c>
       <c r="D18">
-        <v>0.4400965529309104</v>
+        <v>0.2723563926191304</v>
       </c>
       <c r="E18">
-        <v>0.11443072050829</v>
+        <v>0.04216545104661407</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.381491725849344</v>
+        <v>2.050273813748902</v>
       </c>
       <c r="H18">
-        <v>1.89812179922211</v>
+        <v>1.1603663295285</v>
       </c>
       <c r="I18">
-        <v>1.697796717279971</v>
+        <v>1.018398175898575</v>
       </c>
       <c r="J18">
-        <v>0.03396754999474005</v>
+        <v>0.02714571378299624</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6687144014234008</v>
+        <v>0.647362716397879</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.836829309653082</v>
+        <v>0.7164537043099095</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.00734563223557</v>
+        <v>5.039550602052998</v>
       </c>
       <c r="C19">
-        <v>0.2914400285344527</v>
+        <v>0.8997641070773739</v>
       </c>
       <c r="D19">
-        <v>0.4399436192826016</v>
+        <v>0.2709168499095824</v>
       </c>
       <c r="E19">
-        <v>0.1144639163456436</v>
+        <v>0.04213439171807742</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.379828793060057</v>
+        <v>2.037205123806643</v>
       </c>
       <c r="H19">
-        <v>1.897903448476427</v>
+        <v>1.155058332435516</v>
       </c>
       <c r="I19">
-        <v>1.697841757370739</v>
+        <v>1.014321992912279</v>
       </c>
       <c r="J19">
-        <v>0.03392807761855465</v>
+        <v>0.027021843459762</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6677998411754373</v>
+        <v>0.6425183273463517</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.838654935616281</v>
+        <v>0.7211319779504333</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.055193799108906</v>
+        <v>5.240347601563315</v>
       </c>
       <c r="C20">
-        <v>0.3013081730864258</v>
+        <v>0.9376411889070368</v>
       </c>
       <c r="D20">
-        <v>0.4406441608131928</v>
+        <v>0.2774311902975768</v>
       </c>
       <c r="E20">
-        <v>0.1143166646797606</v>
+        <v>0.04227806342148455</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.387410705948128</v>
+        <v>2.096452729227195</v>
       </c>
       <c r="H20">
-        <v>1.898950063792341</v>
+        <v>1.179167986191743</v>
       </c>
       <c r="I20">
-        <v>1.697700478991806</v>
+        <v>1.032886730730624</v>
       </c>
       <c r="J20">
-        <v>0.03410539549414082</v>
+        <v>0.02758034265177933</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6719364359720856</v>
+        <v>0.6644021215342519</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.830485927539685</v>
+        <v>0.7002078387122097</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.217495234370119</v>
+        <v>5.924721316850253</v>
       </c>
       <c r="C21">
-        <v>0.3345531085038829</v>
+        <v>1.066747795285949</v>
       </c>
       <c r="D21">
-        <v>0.443213506185117</v>
+        <v>0.2999934520304492</v>
       </c>
       <c r="E21">
-        <v>0.1138592075398641</v>
+        <v>0.04283168487879507</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.414614002702479</v>
+        <v>2.303723013195651</v>
       </c>
       <c r="H21">
-        <v>1.90358836572878</v>
+        <v>1.264336296221757</v>
       </c>
       <c r="I21">
-        <v>1.698302498604917</v>
+        <v>1.099390288844873</v>
       </c>
       <c r="J21">
-        <v>0.03469572389201048</v>
+        <v>0.02947819471265234</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6862019509350574</v>
+        <v>0.7395030591454343</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.803854174292576</v>
+        <v>0.6322458294483155</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.324714372418043</v>
+        <v>6.380287038852032</v>
       </c>
       <c r="C22">
-        <v>0.3563482293512834</v>
+        <v>1.152725160901696</v>
       </c>
       <c r="D22">
-        <v>0.4450533917890596</v>
+        <v>0.3152950570010375</v>
       </c>
       <c r="E22">
-        <v>0.1135879708362317</v>
+        <v>0.04324975356322014</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.433687539267254</v>
+        <v>2.446026373476911</v>
       </c>
       <c r="H22">
-        <v>1.907457821761369</v>
+        <v>1.32343798516257</v>
       </c>
       <c r="I22">
-        <v>1.699500955321099</v>
+        <v>1.146259295224525</v>
       </c>
       <c r="J22">
-        <v>0.03507752097724648</v>
+        <v>0.03073795938799151</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6957990593580519</v>
+        <v>0.7899058357998854</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.787057482901574</v>
+        <v>0.5896889694224061</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.267384699185243</v>
+        <v>6.136313815010737</v>
       </c>
       <c r="C23">
-        <v>0.3447095057797469</v>
+        <v>1.106675869093749</v>
       </c>
       <c r="D23">
-        <v>0.4440567109749196</v>
+        <v>0.307073852108573</v>
       </c>
       <c r="E23">
-        <v>0.1137302003488543</v>
+        <v>0.04302124531688278</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.423388796826202</v>
+        <v>2.369401204828591</v>
       </c>
       <c r="H23">
-        <v>1.905315811264359</v>
+        <v>1.291556691984908</v>
       </c>
       <c r="I23">
-        <v>1.698787495220856</v>
+        <v>1.120910526982001</v>
       </c>
       <c r="J23">
-        <v>0.03487411399329332</v>
+        <v>0.0300635849266655</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6906518419048666</v>
+        <v>0.7628741700058868</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.795966414370994</v>
+        <v>0.6122242543109611</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.052560418012604</v>
+        <v>5.229286707537881</v>
       </c>
       <c r="C24">
-        <v>0.3007659283850046</v>
+        <v>0.9355547559227944</v>
       </c>
       <c r="D24">
-        <v>0.4406048791418868</v>
+        <v>0.2770710414585267</v>
       </c>
       <c r="E24">
-        <v>0.1143246106206082</v>
+        <v>0.04226991509554345</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.386987853420351</v>
+        <v>2.093169996702017</v>
       </c>
       <c r="H24">
-        <v>1.898888373254835</v>
+        <v>1.177829143770452</v>
       </c>
       <c r="I24">
-        <v>1.697704193126</v>
+        <v>1.031852499017305</v>
       </c>
       <c r="J24">
-        <v>0.03409567857944218</v>
+        <v>0.02754960043872501</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6717078931736324</v>
+        <v>0.6631947968207044</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.830931467566717</v>
+        <v>0.7013483668001328</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.825760354295085</v>
+        <v>4.280016061039362</v>
       </c>
       <c r="C25">
-        <v>0.2536490347576148</v>
+        <v>0.7564464754763947</v>
       </c>
       <c r="D25">
-        <v>0.4375715617268838</v>
+        <v>0.2467657961400107</v>
       </c>
       <c r="E25">
-        <v>0.1150852171858912</v>
+        <v>0.0416797720872264</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.353243593978647</v>
+        <v>1.82007522602197</v>
       </c>
       <c r="H25">
-        <v>1.895540799088479</v>
+        <v>1.067829486302657</v>
       </c>
       <c r="I25">
-        <v>1.699975503799315</v>
+        <v>0.9483677504306272</v>
       </c>
       <c r="J25">
-        <v>0.03323853958393386</v>
+        <v>0.02489962652480315</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6524481643832587</v>
+        <v>0.5604295842275917</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.871252251818374</v>
+        <v>0.8047484755562042</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.599706568540171</v>
+        <v>1.817681358661645</v>
       </c>
       <c r="C2">
-        <v>0.6279158467580999</v>
+        <v>0.5071535841609318</v>
       </c>
       <c r="D2">
-        <v>0.2258985597012355</v>
+        <v>0.4220182195171844</v>
       </c>
       <c r="E2">
-        <v>0.04141398953558806</v>
+        <v>0.1542934299375176</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.63600279005334</v>
+        <v>0.4671845332232607</v>
       </c>
       <c r="H2">
-        <v>0.9957053785095127</v>
+        <v>0.0002137730156357431</v>
       </c>
       <c r="I2">
-        <v>0.8957362380253073</v>
+        <v>0.001074380352883875</v>
       </c>
       <c r="J2">
-        <v>0.02298070606155989</v>
+        <v>0.3585845917807546</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2729321608458974</v>
       </c>
       <c r="L2">
-        <v>0.4879577689356722</v>
+        <v>0.07507788159613682</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8864519785044322</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6485251221528827</v>
+      </c>
+      <c r="P2">
+        <v>0.8235388002399446</v>
+      </c>
+      <c r="Q2">
+        <v>1.689699682058915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.147523128513228</v>
+        <v>1.583352950623748</v>
       </c>
       <c r="C3">
-        <v>0.542313424449901</v>
+        <v>0.4446385406563422</v>
       </c>
       <c r="D3">
-        <v>0.2125189901588413</v>
+        <v>0.3877266496458702</v>
       </c>
       <c r="E3">
-        <v>0.04133012679321357</v>
+        <v>0.1427070167231577</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.519977195808764</v>
+        <v>0.4360160642958419</v>
       </c>
       <c r="H3">
-        <v>0.951483345394621</v>
+        <v>0.0008386956950612312</v>
       </c>
       <c r="I3">
-        <v>0.8647265359711511</v>
+        <v>0.0005954165937414047</v>
       </c>
       <c r="J3">
-        <v>0.02169150204963621</v>
+        <v>0.3479942888749292</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2717684145070365</v>
       </c>
       <c r="L3">
-        <v>0.4404491567113098</v>
+        <v>0.06948181060467107</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.945006430953593</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5673133171865672</v>
+      </c>
+      <c r="P3">
+        <v>0.8334123064935852</v>
+      </c>
+      <c r="Q3">
+        <v>1.601156259593495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.873450907921267</v>
+        <v>1.438838657476538</v>
       </c>
       <c r="C4">
-        <v>0.4903253493276338</v>
+        <v>0.4064746725874215</v>
       </c>
       <c r="D4">
-        <v>0.2046388436287572</v>
+        <v>0.3668284064164169</v>
       </c>
       <c r="E4">
-        <v>0.04132346434159562</v>
+        <v>0.1355879639458841</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.452486452882141</v>
+        <v>0.4172489472903038</v>
       </c>
       <c r="H4">
-        <v>0.9263717573205383</v>
+        <v>0.001450979725716728</v>
       </c>
       <c r="I4">
-        <v>0.8477340177141883</v>
+        <v>0.0004600964741774405</v>
       </c>
       <c r="J4">
-        <v>0.02090292951254114</v>
+        <v>0.3417535794497724</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2712766760480925</v>
       </c>
       <c r="L4">
-        <v>0.4119580709151336</v>
+        <v>0.06602018260495512</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9824434317347119</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5174401118672591</v>
+      </c>
+      <c r="P4">
+        <v>0.8401319194400756</v>
+      </c>
+      <c r="Q4">
+        <v>1.54811495608314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.762553867047416</v>
+        <v>1.378852928558445</v>
       </c>
       <c r="C5">
-        <v>0.4692608387655071</v>
+        <v>0.3916368731857744</v>
       </c>
       <c r="D5">
-        <v>0.201506276534019</v>
+        <v>0.3583409419015737</v>
       </c>
       <c r="E5">
-        <v>0.0413316600160698</v>
+        <v>0.1326784484781776</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.425851038574251</v>
+        <v>0.409274793683295</v>
       </c>
       <c r="H5">
-        <v>0.9166169107054429</v>
+        <v>0.001756455030626158</v>
       </c>
       <c r="I5">
-        <v>0.8412901104244668</v>
+        <v>0.0005068284940081824</v>
       </c>
       <c r="J5">
-        <v>0.02058199324864418</v>
+        <v>0.3390617773038116</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2708464939308932</v>
       </c>
       <c r="L5">
-        <v>0.4005033126958892</v>
+        <v>0.06459602236582285</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.998060629939701</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.497113348726046</v>
+      </c>
+      <c r="P5">
+        <v>0.8432922084984185</v>
+      </c>
+      <c r="Q5">
+        <v>1.525494643065372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.744184180474065</v>
+        <v>1.367741166749681</v>
       </c>
       <c r="C6">
-        <v>0.4657697701110806</v>
+        <v>0.3899906928557471</v>
       </c>
       <c r="D6">
-        <v>0.200990711503735</v>
+        <v>0.3569245153753968</v>
       </c>
       <c r="E6">
-        <v>0.04133366977792363</v>
+        <v>0.1321876459188225</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.421478555279521</v>
+        <v>0.4074504509971177</v>
       </c>
       <c r="H6">
-        <v>0.9150250447509904</v>
+        <v>0.001811869759778206</v>
       </c>
       <c r="I6">
-        <v>0.8402481838489066</v>
+        <v>0.0006025824929203338</v>
       </c>
       <c r="J6">
-        <v>0.0205287175289115</v>
+        <v>0.3383596296277886</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.270431953500669</v>
       </c>
       <c r="L6">
-        <v>0.3986102317348212</v>
+        <v>0.06435161593971017</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000675344602231</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4937410259680703</v>
+      </c>
+      <c r="P6">
+        <v>0.8441481854952713</v>
+      </c>
+      <c r="Q6">
+        <v>1.520143507203954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.871952251583139</v>
+        <v>1.434902383148369</v>
       </c>
       <c r="C7">
-        <v>0.4900408047265614</v>
+        <v>0.4085045705380992</v>
       </c>
       <c r="D7">
-        <v>0.2045962853280088</v>
+        <v>0.3666890557565097</v>
       </c>
       <c r="E7">
-        <v>0.04132353115412801</v>
+        <v>0.1355284902007057</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.452123820834942</v>
+        <v>0.4157598116684227</v>
       </c>
       <c r="H7">
-        <v>0.9262383075294736</v>
+        <v>0.001458338066393061</v>
       </c>
       <c r="I7">
-        <v>0.8476452100428062</v>
+        <v>0.0006796977397751647</v>
       </c>
       <c r="J7">
-        <v>0.02089860001150612</v>
+        <v>0.3410101201263984</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2703252592984029</v>
       </c>
       <c r="L7">
-        <v>0.4118029773901526</v>
+        <v>0.06598080934297457</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9826526028777467</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5171748627162245</v>
+      </c>
+      <c r="P7">
+        <v>0.8410658915319473</v>
+      </c>
+      <c r="Q7">
+        <v>1.543400005345063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.442984898191526</v>
+        <v>1.732832315124767</v>
       </c>
       <c r="C8">
-        <v>0.59826705813893</v>
+        <v>0.4885257119923097</v>
       </c>
       <c r="D8">
-        <v>0.2212122756241683</v>
+        <v>0.4101286948378089</v>
       </c>
       <c r="E8">
-        <v>0.0413755429987166</v>
+        <v>0.1502731841880056</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.595171892505221</v>
+        <v>0.454525545651066</v>
       </c>
       <c r="H8">
-        <v>0.9800121978970537</v>
+        <v>0.0003823778703797576</v>
       </c>
       <c r="I8">
-        <v>0.8845977306480535</v>
+        <v>0.001136388072270123</v>
       </c>
       <c r="J8">
-        <v>0.02253534996346573</v>
+        <v>0.3539429910945984</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2712363604148642</v>
       </c>
       <c r="L8">
-        <v>0.4714262369887621</v>
+        <v>0.07312698518850524</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9063260243992843</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6205329885072999</v>
+      </c>
+      <c r="P8">
+        <v>0.8280447398725812</v>
+      </c>
+      <c r="Q8">
+        <v>1.653044931166505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.596488324526433</v>
+        <v>2.317868405160652</v>
       </c>
       <c r="C9">
-        <v>0.8161754806211263</v>
+        <v>0.6434411748249715</v>
       </c>
       <c r="D9">
-        <v>0.2567294028628879</v>
+        <v>0.4967543530515286</v>
       </c>
       <c r="E9">
-        <v>0.04185106137513905</v>
+        <v>0.1792324551013138</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.909154509172907</v>
+        <v>0.536269320724017</v>
       </c>
       <c r="H9">
-        <v>1.103379561922935</v>
+        <v>0.0002107510080631148</v>
       </c>
       <c r="I9">
-        <v>0.9749940286391876</v>
+        <v>0.003066573719879173</v>
       </c>
       <c r="J9">
-        <v>0.02578598267150056</v>
+        <v>0.382778354360056</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2765865968150685</v>
       </c>
       <c r="L9">
-        <v>0.5944945613006496</v>
+        <v>0.08701817999872929</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7690106333463866</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.8233146621605343</v>
+      </c>
+      <c r="P9">
+        <v>0.8062464982231816</v>
+      </c>
+      <c r="Q9">
+        <v>1.887398991340234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.472854432875977</v>
+        <v>2.738371322561306</v>
       </c>
       <c r="C10">
-        <v>0.9814997224357853</v>
+        <v>0.7563433302328804</v>
       </c>
       <c r="D10">
-        <v>0.2850359171582824</v>
+        <v>0.5504196256718217</v>
       </c>
       <c r="E10">
-        <v>0.04245544115098809</v>
+        <v>0.1934879781089762</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.165962204416985</v>
+        <v>0.5904455112947034</v>
       </c>
       <c r="H10">
-        <v>1.207594882768319</v>
+        <v>0.001531203876447673</v>
       </c>
       <c r="I10">
-        <v>1.054932579826897</v>
+        <v>0.005521803892218458</v>
       </c>
       <c r="J10">
-        <v>0.02822600424051203</v>
+        <v>0.4013823659984439</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2783934946395163</v>
       </c>
       <c r="L10">
-        <v>0.6898296303813538</v>
+        <v>0.09267989922044961</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6765509695884795</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.957385511958357</v>
+      </c>
+      <c r="P10">
+        <v>0.7990719986294508</v>
+      </c>
+      <c r="Q10">
+        <v>2.04166270062052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.879914400994039</v>
+        <v>2.879359837144364</v>
       </c>
       <c r="C11">
-        <v>1.058293553085207</v>
+        <v>0.7794410595565466</v>
       </c>
       <c r="D11">
-        <v>0.2985001957695061</v>
+        <v>0.4823686262338072</v>
       </c>
       <c r="E11">
-        <v>0.04279260639297355</v>
+        <v>0.1448397774899242</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.289909230146037</v>
+        <v>0.5482296931654531</v>
       </c>
       <c r="H11">
-        <v>1.258624359518308</v>
+        <v>0.02005480952032102</v>
       </c>
       <c r="I11">
-        <v>1.09488960933578</v>
+        <v>0.006749935571810362</v>
       </c>
       <c r="J11">
-        <v>0.02935416126057788</v>
+        <v>0.3766517562651046</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2530375290109532</v>
       </c>
       <c r="L11">
-        <v>0.7345628713946297</v>
+        <v>0.06698989269234445</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6365437691124338</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.8881565237561304</v>
+      </c>
+      <c r="P11">
+        <v>0.8434633717814677</v>
+      </c>
+      <c r="Q11">
+        <v>1.900564865059124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.035462543638573</v>
+        <v>2.913877773898378</v>
       </c>
       <c r="C12">
-        <v>1.087643989018432</v>
+        <v>0.7709727732642193</v>
       </c>
       <c r="D12">
-        <v>0.3036932547459088</v>
+        <v>0.417786315223978</v>
       </c>
       <c r="E12">
-        <v>0.04292987304224383</v>
+        <v>0.1094631236756278</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.338005910855486</v>
+        <v>0.5041246838466549</v>
       </c>
       <c r="H12">
-        <v>1.278532169933214</v>
+        <v>0.05853201192701363</v>
       </c>
       <c r="I12">
-        <v>1.110598815504048</v>
+        <v>0.006865597856496208</v>
       </c>
       <c r="J12">
-        <v>0.02978463676624088</v>
+        <v>0.3531618738237512</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2333796935387689</v>
       </c>
       <c r="L12">
-        <v>0.7517262281600381</v>
+        <v>0.05888701636768356</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6217109931441929</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.8041484198266176</v>
+      </c>
+      <c r="P12">
+        <v>0.8856468547076304</v>
+      </c>
+      <c r="Q12">
+        <v>1.757942380907878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.001896686776433</v>
+        <v>2.863198848159357</v>
       </c>
       <c r="C13">
-        <v>1.081310102022258</v>
+        <v>0.741344001795909</v>
       </c>
       <c r="D13">
-        <v>0.302570466316368</v>
+        <v>0.3524025248438534</v>
       </c>
       <c r="E13">
-        <v>0.04289987275304519</v>
+        <v>0.08227975520069286</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.327593469465825</v>
+        <v>0.4538852972619338</v>
       </c>
       <c r="H13">
-        <v>1.274217602638373</v>
+        <v>0.1139534272340086</v>
       </c>
       <c r="I13">
-        <v>1.107188774240726</v>
+        <v>0.006429889200271433</v>
       </c>
       <c r="J13">
-        <v>0.02969176956084141</v>
+        <v>0.3281456789681556</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2154341726862583</v>
       </c>
       <c r="L13">
-        <v>0.74801936256722</v>
+        <v>0.0635407808929358</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6248910193348038</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7045636488888292</v>
+      </c>
+      <c r="P13">
+        <v>0.9290445902938842</v>
+      </c>
+      <c r="Q13">
+        <v>1.599032023266659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.892682110813041</v>
+        <v>2.788316552307379</v>
       </c>
       <c r="C14">
-        <v>1.060702555166188</v>
+        <v>0.7118522254245931</v>
       </c>
       <c r="D14">
-        <v>0.29892547836576</v>
+        <v>0.307250954833151</v>
       </c>
       <c r="E14">
-        <v>0.0428037032921047</v>
+        <v>0.06822539769686653</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.293842074887124</v>
+        <v>0.4160523411398032</v>
       </c>
       <c r="H14">
-        <v>1.26025009256773</v>
+        <v>0.1630427016836791</v>
       </c>
       <c r="I14">
-        <v>1.096170044946263</v>
+        <v>0.005968502686688026</v>
       </c>
       <c r="J14">
-        <v>0.02938950722441547</v>
+        <v>0.309959532976265</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2036198206959767</v>
       </c>
       <c r="L14">
-        <v>0.7359702553281693</v>
+        <v>0.07436810458652232</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6353169787094277</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6289048007226725</v>
+      </c>
+      <c r="P14">
+        <v>0.9605340145477186</v>
+      </c>
+      <c r="Q14">
+        <v>1.480691044648665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.825973993347702</v>
+        <v>2.750794097644018</v>
       </c>
       <c r="C15">
-        <v>1.0481163711639</v>
+        <v>0.7011426929144875</v>
       </c>
       <c r="D15">
-        <v>0.2967054297954519</v>
+        <v>0.2956403055233494</v>
       </c>
       <c r="E15">
-        <v>0.04274606577740236</v>
+        <v>0.06544134464462292</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.273323834427032</v>
+        <v>0.4050535334472158</v>
       </c>
       <c r="H15">
-        <v>1.251772655856001</v>
+        <v>0.1754472358520758</v>
       </c>
       <c r="I15">
-        <v>1.0894980275054</v>
+        <v>0.005846692578770352</v>
       </c>
       <c r="J15">
-        <v>0.02920480907722478</v>
+        <v>0.3049802872678669</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.200765221760399</v>
       </c>
       <c r="L15">
-        <v>0.7286198543967544</v>
+        <v>0.07774711109251342</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6417451648828827</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6069947770446191</v>
+      </c>
+      <c r="P15">
+        <v>0.9682861321459484</v>
+      </c>
+      <c r="Q15">
+        <v>1.446914315877279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.446437310072724</v>
+        <v>2.579087741611716</v>
       </c>
       <c r="C16">
-        <v>0.9765164827146009</v>
+        <v>0.660513760230856</v>
       </c>
       <c r="D16">
-        <v>0.2841686421687939</v>
+        <v>0.2874046294700463</v>
       </c>
       <c r="E16">
-        <v>0.0424347120499764</v>
+        <v>0.06554279948335395</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.158016615779644</v>
+        <v>0.3917866314262284</v>
       </c>
       <c r="H16">
-        <v>1.204338104224917</v>
+        <v>0.1622440506418599</v>
       </c>
       <c r="I16">
-        <v>1.052398703568699</v>
+        <v>0.004951584436675205</v>
       </c>
       <c r="J16">
-        <v>0.02815269626350947</v>
+        <v>0.3018138869304465</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2030628441657782</v>
       </c>
       <c r="L16">
-        <v>0.6869359587615094</v>
+        <v>0.0741524289251636</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6792086594995137</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5725123007794508</v>
+      </c>
+      <c r="P16">
+        <v>0.9600056568582573</v>
+      </c>
+      <c r="Q16">
+        <v>1.411966735252918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.215886919965158</v>
+        <v>2.487156470865386</v>
       </c>
       <c r="C17">
-        <v>0.9330271327569619</v>
+        <v>0.6450966873284756</v>
       </c>
       <c r="D17">
-        <v>0.2766349383901172</v>
+        <v>0.30443806828292</v>
       </c>
       <c r="E17">
-        <v>0.042260079784608</v>
+        <v>0.07220167904633179</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.089196064884874</v>
+        <v>0.4014949851748213</v>
       </c>
       <c r="H17">
-        <v>1.176208859299521</v>
+        <v>0.1242535989528477</v>
       </c>
       <c r="I17">
-        <v>1.030601365923573</v>
+        <v>0.004544024812735969</v>
       </c>
       <c r="J17">
-        <v>0.02751235418318743</v>
+        <v>0.3089859383769351</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2110221228213689</v>
       </c>
       <c r="L17">
-        <v>0.6617324627466132</v>
+        <v>0.06440034598821853</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7027319328723056</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5854862614453822</v>
+      </c>
+      <c r="P17">
+        <v>0.9372203627395663</v>
+      </c>
+      <c r="Q17">
+        <v>1.447448342575029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.084057782945592</v>
+        <v>2.455674621686057</v>
       </c>
       <c r="C18">
-        <v>0.9081597889692148</v>
+        <v>0.6475920567422975</v>
       </c>
       <c r="D18">
-        <v>0.2723563926191304</v>
+        <v>0.3474977520390325</v>
       </c>
       <c r="E18">
-        <v>0.04216545104661407</v>
+        <v>0.08960054324815303</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.050273813748902</v>
+        <v>0.4336225392303135</v>
       </c>
       <c r="H18">
-        <v>1.1603663295285</v>
+        <v>0.07140073237667366</v>
       </c>
       <c r="I18">
-        <v>1.018398175898575</v>
+        <v>0.004210999282651784</v>
       </c>
       <c r="J18">
-        <v>0.02714571378299624</v>
+        <v>0.3265628628941784</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.225759982478948</v>
       </c>
       <c r="L18">
-        <v>0.647362716397879</v>
+        <v>0.05531893465588933</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7164537043099095</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6425886443382893</v>
+      </c>
+      <c r="P18">
+        <v>0.9001286891817415</v>
+      </c>
+      <c r="Q18">
+        <v>1.552300043734931</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.039550602052998</v>
+        <v>2.468749978508811</v>
       </c>
       <c r="C19">
-        <v>0.8997641070773739</v>
+        <v>0.6685855145078108</v>
       </c>
       <c r="D19">
-        <v>0.2709168499095824</v>
+        <v>0.41222615707062</v>
       </c>
       <c r="E19">
-        <v>0.04213439171807742</v>
+        <v>0.1209217314085613</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.037205123806643</v>
+        <v>0.4804835060691346</v>
       </c>
       <c r="H19">
-        <v>1.155058332435516</v>
+        <v>0.02632271124171126</v>
       </c>
       <c r="I19">
-        <v>1.014321992912279</v>
+        <v>0.004459048449865222</v>
       </c>
       <c r="J19">
-        <v>0.027021843459762</v>
+        <v>0.3505881290408581</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2441909025271833</v>
       </c>
       <c r="L19">
-        <v>0.6425183273463517</v>
+        <v>0.05787304061318288</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7211319779504333</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7344380736128784</v>
+      </c>
+      <c r="P19">
+        <v>0.8596779297175061</v>
+      </c>
+      <c r="Q19">
+        <v>1.701940402687455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.240347601563315</v>
+        <v>2.61787177601451</v>
       </c>
       <c r="C20">
-        <v>0.9376411889070368</v>
+        <v>0.733587017497598</v>
       </c>
       <c r="D20">
-        <v>0.2774311902975768</v>
+        <v>0.5357310867840965</v>
       </c>
       <c r="E20">
-        <v>0.04227806342148455</v>
+        <v>0.18938610207287</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.096452729227195</v>
+        <v>0.571418187857077</v>
       </c>
       <c r="H20">
-        <v>1.179167986191743</v>
+        <v>0.001063564676866413</v>
       </c>
       <c r="I20">
-        <v>1.032886730730624</v>
+        <v>0.00549222348377576</v>
       </c>
       <c r="J20">
-        <v>0.02758034265177933</v>
+        <v>0.3940453321729507</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2748105980165931</v>
       </c>
       <c r="L20">
-        <v>0.6644021215342519</v>
+        <v>0.09093466884469237</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7002078387122097</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9215542496177349</v>
+      </c>
+      <c r="P20">
+        <v>0.8041332996378898</v>
+      </c>
+      <c r="Q20">
+        <v>1.985845630306443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.924721316850253</v>
+        <v>2.949652189278595</v>
       </c>
       <c r="C21">
-        <v>1.066747795285949</v>
+        <v>0.8250720116260197</v>
       </c>
       <c r="D21">
-        <v>0.2999934520304492</v>
+        <v>0.5944076899963591</v>
       </c>
       <c r="E21">
-        <v>0.04283168487879507</v>
+        <v>0.2113528578683415</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.303723013195651</v>
+        <v>0.6265937696213797</v>
       </c>
       <c r="H21">
-        <v>1.264336296221757</v>
+        <v>0.002450343781067232</v>
       </c>
       <c r="I21">
-        <v>1.099390288844873</v>
+        <v>0.007660939536931366</v>
       </c>
       <c r="J21">
-        <v>0.02947819471265234</v>
+        <v>0.4151822447841624</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2818759396953929</v>
       </c>
       <c r="L21">
-        <v>0.7395030591454343</v>
+        <v>0.1022817752211438</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6322458294483155</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.04817255458164</v>
+      </c>
+      <c r="P21">
+        <v>0.7920279370344261</v>
+      </c>
+      <c r="Q21">
+        <v>2.147416953896936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.380287038852032</v>
+        <v>3.167757501807273</v>
       </c>
       <c r="C22">
-        <v>1.152725160901696</v>
+        <v>0.8804238462835485</v>
       </c>
       <c r="D22">
-        <v>0.3152950570010375</v>
+        <v>0.6274363492430837</v>
       </c>
       <c r="E22">
-        <v>0.04324975356322014</v>
+        <v>0.2221588257747555</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.446026373476911</v>
+        <v>0.6611760268516917</v>
       </c>
       <c r="H22">
-        <v>1.32343798516257</v>
+        <v>0.003700890823098657</v>
       </c>
       <c r="I22">
-        <v>1.146259295224525</v>
+        <v>0.00900530396995336</v>
       </c>
       <c r="J22">
-        <v>0.03073795938799151</v>
+        <v>0.4283331986631964</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.286482257266524</v>
       </c>
       <c r="L22">
-        <v>0.7899058357998854</v>
+        <v>0.107436885087715</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5896889694224061</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.123324867258077</v>
+      </c>
+      <c r="P22">
+        <v>0.7858787089713175</v>
+      </c>
+      <c r="Q22">
+        <v>2.248481499786294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.136313815010737</v>
+        <v>3.055210878480068</v>
       </c>
       <c r="C23">
-        <v>1.106675869093749</v>
+        <v>0.8481150375483537</v>
       </c>
       <c r="D23">
-        <v>0.307073852108573</v>
+        <v>0.609806803798989</v>
       </c>
       <c r="E23">
-        <v>0.04302124531688278</v>
+        <v>0.2164077307487915</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.369401204828591</v>
+        <v>0.6442978726966544</v>
       </c>
       <c r="H23">
-        <v>1.291556691984908</v>
+        <v>0.003008529054135067</v>
       </c>
       <c r="I23">
-        <v>1.120910526982001</v>
+        <v>0.008003594378534373</v>
       </c>
       <c r="J23">
-        <v>0.0300635849266655</v>
+        <v>0.4221086721357921</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2850903780525194</v>
       </c>
       <c r="L23">
-        <v>0.7628741700058868</v>
+        <v>0.1047056128046862</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6122242543109611</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.083195376151558</v>
+      </c>
+      <c r="P23">
+        <v>0.7878297753514758</v>
+      </c>
+      <c r="Q23">
+        <v>2.199552585171034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.229286707537881</v>
+        <v>2.622280333059621</v>
       </c>
       <c r="C24">
-        <v>0.9355547559227944</v>
+        <v>0.7308525676546083</v>
       </c>
       <c r="D24">
-        <v>0.2770710414585267</v>
+        <v>0.5435516420799047</v>
       </c>
       <c r="E24">
-        <v>0.04226991509554345</v>
+        <v>0.1946753645074928</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.093169996702017</v>
+        <v>0.579050138464666</v>
       </c>
       <c r="H24">
-        <v>1.177829143770452</v>
+        <v>0.001000403522216864</v>
       </c>
       <c r="I24">
-        <v>1.031852499017305</v>
+        <v>0.005065341330249495</v>
       </c>
       <c r="J24">
-        <v>0.02754960043872501</v>
+        <v>0.3979611613386993</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2787213286158376</v>
       </c>
       <c r="L24">
-        <v>0.6631947968207044</v>
+        <v>0.09436214841462132</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7013483668001328</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.9315334301453362</v>
+      </c>
+      <c r="P24">
+        <v>0.7987406362765981</v>
+      </c>
+      <c r="Q24">
+        <v>2.010220566020422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.280016061039362</v>
+        <v>2.154310822828563</v>
       </c>
       <c r="C25">
-        <v>0.7564464754763947</v>
+        <v>0.6053908071374394</v>
       </c>
       <c r="D25">
-        <v>0.2467657961400107</v>
+        <v>0.4731066200343719</v>
       </c>
       <c r="E25">
-        <v>0.0416797720872264</v>
+        <v>0.1713564028759968</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.82007522602197</v>
+        <v>0.5112574216811083</v>
       </c>
       <c r="H25">
-        <v>1.067829486302657</v>
+        <v>3.017320759846065E-05</v>
       </c>
       <c r="I25">
-        <v>0.9483677504306272</v>
+        <v>0.002759122088445309</v>
       </c>
       <c r="J25">
-        <v>0.02489962652480315</v>
+        <v>0.3734480498497561</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2732295632755175</v>
       </c>
       <c r="L25">
-        <v>0.5604295842275917</v>
+        <v>0.08323570364390065</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8047484755562042</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.768427978091033</v>
+      </c>
+      <c r="P25">
+        <v>0.8133283658257753</v>
+      </c>
+      <c r="Q25">
+        <v>1.81466097771488</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.817681358661645</v>
+        <v>1.765794075840745</v>
       </c>
       <c r="C2">
-        <v>0.5071535841609318</v>
+        <v>0.5400651860596781</v>
       </c>
       <c r="D2">
-        <v>0.4220182195171844</v>
+        <v>0.4218517202129277</v>
       </c>
       <c r="E2">
-        <v>0.1542934299375176</v>
+        <v>0.1541555453552306</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4671845332232607</v>
+        <v>0.4225941585274029</v>
       </c>
       <c r="H2">
-        <v>0.0002137730156357431</v>
+        <v>0.0002109785013650889</v>
       </c>
       <c r="I2">
-        <v>0.001074380352883875</v>
+        <v>0.001321653917433885</v>
       </c>
       <c r="J2">
-        <v>0.3585845917807546</v>
+        <v>0.3842186165542785</v>
       </c>
       <c r="K2">
-        <v>0.2729321608458974</v>
+        <v>0.2517890537040905</v>
       </c>
       <c r="L2">
-        <v>0.07507788159613682</v>
+        <v>0.1433997256429649</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05742952352075648</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.07494285192920103</v>
       </c>
       <c r="O2">
-        <v>0.6485251221528827</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8235388002399446</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.689699682058915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6491906306584738</v>
+      </c>
+      <c r="R2">
+        <v>0.8334134762352861</v>
+      </c>
+      <c r="S2">
+        <v>1.60911287665823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.583352950623748</v>
+        <v>1.543653280741808</v>
       </c>
       <c r="C3">
-        <v>0.4446385406563422</v>
+        <v>0.4687592603435462</v>
       </c>
       <c r="D3">
-        <v>0.3877266496458702</v>
+        <v>0.3878899543683758</v>
       </c>
       <c r="E3">
-        <v>0.1427070167231577</v>
+        <v>0.1428461684315927</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4360160642958419</v>
+        <v>0.3960289878952921</v>
       </c>
       <c r="H3">
-        <v>0.0008386956950612312</v>
+        <v>0.0007973739122515422</v>
       </c>
       <c r="I3">
-        <v>0.0005954165937414047</v>
+        <v>0.0008126193985837915</v>
       </c>
       <c r="J3">
-        <v>0.3479942888749292</v>
+        <v>0.3730568253486979</v>
       </c>
       <c r="K3">
-        <v>0.2717684145070365</v>
+        <v>0.2525356701286654</v>
       </c>
       <c r="L3">
-        <v>0.06948181060467107</v>
+        <v>0.1478238312478481</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05475539297212073</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.06963449773749275</v>
       </c>
       <c r="O3">
-        <v>0.5673133171865672</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8334123064935852</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.601156259593495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5680123746007553</v>
+      </c>
+      <c r="R3">
+        <v>0.8371322117833344</v>
+      </c>
+      <c r="S3">
+        <v>1.532666547998133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.438838657476538</v>
+        <v>1.406376662963339</v>
       </c>
       <c r="C4">
-        <v>0.4064746725874215</v>
+        <v>0.4253589880523805</v>
       </c>
       <c r="D4">
-        <v>0.3668284064164169</v>
+        <v>0.3671982520256591</v>
       </c>
       <c r="E4">
-        <v>0.1355879639458841</v>
+        <v>0.1358997450390937</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4172489472903038</v>
+        <v>0.3800712756508347</v>
       </c>
       <c r="H4">
-        <v>0.001450979725716728</v>
+        <v>0.001367085042504601</v>
       </c>
       <c r="I4">
-        <v>0.0004600964741774405</v>
+        <v>0.0006335862214674748</v>
       </c>
       <c r="J4">
-        <v>0.3417535794497724</v>
+        <v>0.3662657205239981</v>
       </c>
       <c r="K4">
-        <v>0.2712766760480925</v>
+        <v>0.2531372396234914</v>
       </c>
       <c r="L4">
-        <v>0.06602018260495512</v>
+        <v>0.1506325756990385</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05363500800708287</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.06634717948853819</v>
       </c>
       <c r="O4">
-        <v>0.5174401118672591</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8401319194400756</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.54811495608314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5181411443619979</v>
+      </c>
+      <c r="R4">
+        <v>0.8401455800145001</v>
+      </c>
+      <c r="S4">
+        <v>1.486646423872145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.378852928558445</v>
+        <v>1.349291176697477</v>
       </c>
       <c r="C5">
-        <v>0.3916368731857744</v>
+        <v>0.4084532942170824</v>
       </c>
       <c r="D5">
-        <v>0.3583409419015737</v>
+        <v>0.3587964034411897</v>
       </c>
       <c r="E5">
-        <v>0.1326784484781776</v>
+        <v>0.13306151931409</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.409274793683295</v>
+        <v>0.3732512970318282</v>
       </c>
       <c r="H5">
-        <v>0.001756455030626158</v>
+        <v>0.001650647950800277</v>
       </c>
       <c r="I5">
-        <v>0.0005068284940081824</v>
+        <v>0.0006690187137232684</v>
       </c>
       <c r="J5">
-        <v>0.3390617773038116</v>
+        <v>0.3632976152986345</v>
       </c>
       <c r="K5">
-        <v>0.2708464939308932</v>
+        <v>0.2531485419239417</v>
       </c>
       <c r="L5">
-        <v>0.06459602236582285</v>
+        <v>0.1516599155005132</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05324532566064377</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.06499381820932371</v>
       </c>
       <c r="O5">
-        <v>0.497113348726046</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8432922084984185</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.525494643065372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4978111345074439</v>
+      </c>
+      <c r="R5">
+        <v>0.8418379549185531</v>
+      </c>
+      <c r="S5">
+        <v>1.466817507461357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.367741166749681</v>
+        <v>1.338670528034896</v>
       </c>
       <c r="C6">
-        <v>0.3899906928557471</v>
+        <v>0.4064979616845221</v>
       </c>
       <c r="D6">
-        <v>0.3569245153753968</v>
+        <v>0.357394601516333</v>
       </c>
       <c r="E6">
-        <v>0.1321876459188225</v>
+        <v>0.1325828702281946</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4074504509971177</v>
+        <v>0.3716355377337024</v>
       </c>
       <c r="H6">
-        <v>0.001811869759778206</v>
+        <v>0.001702061678800826</v>
       </c>
       <c r="I6">
-        <v>0.0006025824929203338</v>
+        <v>0.0007793116099206188</v>
       </c>
       <c r="J6">
-        <v>0.3383596296277886</v>
+        <v>0.3625424953355321</v>
       </c>
       <c r="K6">
-        <v>0.270431953500669</v>
+        <v>0.2528252174718268</v>
       </c>
       <c r="L6">
-        <v>0.06435161593971017</v>
+        <v>0.1516610769185505</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05311072260772676</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06476141012319658</v>
       </c>
       <c r="O6">
-        <v>0.4937410259680703</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8441481854952713</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.520143507203954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4944381400771718</v>
+      </c>
+      <c r="R6">
+        <v>0.8424808370447678</v>
+      </c>
+      <c r="S6">
+        <v>1.461959969348413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.434902383148369</v>
+        <v>1.401506101768746</v>
       </c>
       <c r="C7">
-        <v>0.4085045705380992</v>
+        <v>0.4267220757274117</v>
       </c>
       <c r="D7">
-        <v>0.3666890557565097</v>
+        <v>0.3670892202299285</v>
       </c>
       <c r="E7">
-        <v>0.1355284902007057</v>
+        <v>0.1358572290650137</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4157598116684227</v>
+        <v>0.3817595204814097</v>
       </c>
       <c r="H7">
-        <v>0.001458338066393061</v>
+        <v>0.001376700098661643</v>
       </c>
       <c r="I7">
-        <v>0.0006796977397751647</v>
+        <v>0.0008955496872564694</v>
       </c>
       <c r="J7">
-        <v>0.3410101201263984</v>
+        <v>0.3607884690442802</v>
       </c>
       <c r="K7">
-        <v>0.2703252592984029</v>
+        <v>0.2519278535572091</v>
       </c>
       <c r="L7">
-        <v>0.06598080934297457</v>
+        <v>0.1500307047171141</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05332549413498278</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.06631413745791903</v>
       </c>
       <c r="O7">
-        <v>0.5171748627162245</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8410658915319473</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.543400005345063</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5175373905959049</v>
+      </c>
+      <c r="R7">
+        <v>0.8415386455032419</v>
+      </c>
+      <c r="S7">
+        <v>1.479178340991808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.732832315124767</v>
+        <v>1.681869940478464</v>
       </c>
       <c r="C8">
-        <v>0.4885257119923097</v>
+        <v>0.5160503891709141</v>
       </c>
       <c r="D8">
-        <v>0.4101286948378089</v>
+        <v>0.4101749236666734</v>
       </c>
       <c r="E8">
-        <v>0.1502731841880056</v>
+        <v>0.1502858230327959</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.454525545651066</v>
+        <v>0.4220340378810761</v>
       </c>
       <c r="H8">
-        <v>0.0003823778703797576</v>
+        <v>0.0003747199130816892</v>
       </c>
       <c r="I8">
-        <v>0.001136388072270123</v>
+        <v>0.001427352606492072</v>
       </c>
       <c r="J8">
-        <v>0.3539429910945984</v>
+        <v>0.3639520631405304</v>
       </c>
       <c r="K8">
-        <v>0.2712363604148642</v>
+        <v>0.2498103081798391</v>
       </c>
       <c r="L8">
-        <v>0.07312698518850524</v>
+        <v>0.1438847434042252</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05574222105384585</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.07311097985810022</v>
       </c>
       <c r="O8">
-        <v>0.6205329885072999</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8280447398725812</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.653044931166505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6200773831767634</v>
+      </c>
+      <c r="R8">
+        <v>0.8373019519898577</v>
+      </c>
+      <c r="S8">
+        <v>1.567276433987786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.317868405160652</v>
+        <v>2.23399636649367</v>
       </c>
       <c r="C9">
-        <v>0.6434411748249715</v>
+        <v>0.6929720685033089</v>
       </c>
       <c r="D9">
-        <v>0.4967543530515286</v>
+        <v>0.4960253709378435</v>
       </c>
       <c r="E9">
-        <v>0.1792324551013138</v>
+        <v>0.1785837547507043</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.536269320724017</v>
+        <v>0.4951126953967133</v>
       </c>
       <c r="H9">
-        <v>0.0002107510080631148</v>
+        <v>0.0001738131640740548</v>
       </c>
       <c r="I9">
-        <v>0.003066573719879173</v>
+        <v>0.003215500561864815</v>
       </c>
       <c r="J9">
-        <v>0.382778354360056</v>
+        <v>0.3887298662465355</v>
       </c>
       <c r="K9">
-        <v>0.2765865968150685</v>
+        <v>0.2495994603796525</v>
       </c>
       <c r="L9">
-        <v>0.08701817999872929</v>
+        <v>0.1338730885962569</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.06543688981270535</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.08627278117377912</v>
       </c>
       <c r="O9">
-        <v>0.8233146621605343</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8062464982231816</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.887398991340234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8223090932386228</v>
+      </c>
+      <c r="R9">
+        <v>0.831683338420163</v>
+      </c>
+      <c r="S9">
+        <v>1.766255076367088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.738371322561306</v>
+        <v>2.623934562888167</v>
       </c>
       <c r="C10">
-        <v>0.7563433302328804</v>
+        <v>0.8175490877684695</v>
       </c>
       <c r="D10">
-        <v>0.5504196256718217</v>
+        <v>0.5493353710172926</v>
       </c>
       <c r="E10">
-        <v>0.1934879781089762</v>
+        <v>0.1924811547114231</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5904455112947034</v>
+        <v>0.5623772374925267</v>
       </c>
       <c r="H10">
-        <v>0.001531203876447673</v>
+        <v>0.001349993639419456</v>
       </c>
       <c r="I10">
-        <v>0.005521803892218458</v>
+        <v>0.005409033524772511</v>
       </c>
       <c r="J10">
-        <v>0.4013823659984439</v>
+        <v>0.3777463706018267</v>
       </c>
       <c r="K10">
-        <v>0.2783934946395163</v>
+        <v>0.2457119360528814</v>
       </c>
       <c r="L10">
-        <v>0.09267989922044961</v>
+        <v>0.1253500476141021</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07330109941900176</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.09142634254345339</v>
       </c>
       <c r="O10">
-        <v>0.957385511958357</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7990719986294508</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.04166270062052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9538092581038669</v>
+      </c>
+      <c r="R10">
+        <v>0.8398142844669678</v>
+      </c>
+      <c r="S10">
+        <v>1.877878466465773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.879359837144364</v>
+        <v>2.749695867403375</v>
       </c>
       <c r="C11">
-        <v>0.7794410595565466</v>
+        <v>0.8308157697406671</v>
       </c>
       <c r="D11">
-        <v>0.4823686262338072</v>
+        <v>0.4816017301769193</v>
       </c>
       <c r="E11">
-        <v>0.1448397774899242</v>
+        <v>0.1439084286382091</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5482296931654531</v>
+        <v>0.5627027735915107</v>
       </c>
       <c r="H11">
-        <v>0.02005480952032102</v>
+        <v>0.01983595390792914</v>
       </c>
       <c r="I11">
-        <v>0.006749935571810362</v>
+        <v>0.006587501858064115</v>
       </c>
       <c r="J11">
-        <v>0.3766517562651046</v>
+        <v>0.3074189546512187</v>
       </c>
       <c r="K11">
-        <v>0.2530375290109532</v>
+        <v>0.2199810312955854</v>
       </c>
       <c r="L11">
-        <v>0.06698989269234445</v>
+        <v>0.1134539681495212</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06707484988807266</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.06553570104378181</v>
       </c>
       <c r="O11">
-        <v>0.8881565237561304</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8434633717814677</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.900564865059124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.8804293038537949</v>
+      </c>
+      <c r="R11">
+        <v>0.8990799952974555</v>
+      </c>
+      <c r="S11">
+        <v>1.711613340955495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.913877773898378</v>
+        <v>2.781732352153199</v>
       </c>
       <c r="C12">
-        <v>0.7709727732642193</v>
+        <v>0.8141555001877805</v>
       </c>
       <c r="D12">
-        <v>0.417786315223978</v>
+        <v>0.4172012745806626</v>
       </c>
       <c r="E12">
-        <v>0.1094631236756278</v>
+        <v>0.1085318444939851</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5041246838466549</v>
+        <v>0.5383883764621373</v>
       </c>
       <c r="H12">
-        <v>0.05853201192701363</v>
+        <v>0.05832038175751819</v>
       </c>
       <c r="I12">
-        <v>0.006865597856496208</v>
+        <v>0.006663519571485033</v>
       </c>
       <c r="J12">
-        <v>0.3531618738237512</v>
+        <v>0.2707121097541219</v>
       </c>
       <c r="K12">
-        <v>0.2333796935387689</v>
+        <v>0.2023201527762701</v>
       </c>
       <c r="L12">
-        <v>0.05888701636768356</v>
+        <v>0.1065733367634731</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06110533411382235</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.05723476859110921</v>
       </c>
       <c r="O12">
-        <v>0.8041484198266176</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8856468547076304</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.757942380907878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7949585551846852</v>
+      </c>
+      <c r="R12">
+        <v>0.948759751936592</v>
+      </c>
+      <c r="S12">
+        <v>1.568312263761953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.863198848159357</v>
+        <v>2.741255129999161</v>
       </c>
       <c r="C13">
-        <v>0.741344001795909</v>
+        <v>0.7791986667589867</v>
       </c>
       <c r="D13">
-        <v>0.3524025248438534</v>
+        <v>0.3518482260142974</v>
       </c>
       <c r="E13">
-        <v>0.08227975520069286</v>
+        <v>0.0813226288539699</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4538852972619338</v>
+        <v>0.4843588522420958</v>
       </c>
       <c r="H13">
-        <v>0.1139534272340086</v>
+        <v>0.1137856076154975</v>
       </c>
       <c r="I13">
-        <v>0.006429889200271433</v>
+        <v>0.006286754228916003</v>
       </c>
       <c r="J13">
-        <v>0.3281456789681556</v>
+        <v>0.2584233429089977</v>
       </c>
       <c r="K13">
-        <v>0.2154341726862583</v>
+        <v>0.1887327479863465</v>
       </c>
       <c r="L13">
-        <v>0.0635407808929358</v>
+        <v>0.102290551284554</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05485224953434198</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06181540815826381</v>
       </c>
       <c r="O13">
-        <v>0.7045636488888292</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9290445902938842</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.599032023266659</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6964407659332963</v>
+      </c>
+      <c r="R13">
+        <v>0.9919658643334941</v>
+      </c>
+      <c r="S13">
+        <v>1.43231390045645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.788316552307379</v>
+        <v>2.679065414800732</v>
       </c>
       <c r="C14">
-        <v>0.7118522254245931</v>
+        <v>0.7471589212561298</v>
       </c>
       <c r="D14">
-        <v>0.307250954833151</v>
+        <v>0.3066712029109482</v>
       </c>
       <c r="E14">
-        <v>0.06822539769686653</v>
+        <v>0.0672769725492639</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4160523411398032</v>
+        <v>0.4348552529935432</v>
       </c>
       <c r="H14">
-        <v>0.1630427016836791</v>
+        <v>0.1629153868302922</v>
       </c>
       <c r="I14">
-        <v>0.005968502686688026</v>
+        <v>0.005920582896539628</v>
       </c>
       <c r="J14">
-        <v>0.309959532976265</v>
+        <v>0.2587000311862866</v>
       </c>
       <c r="K14">
-        <v>0.2036198206959767</v>
+        <v>0.1807872566362825</v>
       </c>
       <c r="L14">
-        <v>0.07436810458652232</v>
+        <v>0.1002320461524864</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05038218854444843</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07271007163832266</v>
       </c>
       <c r="O14">
-        <v>0.6289048007226725</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9605340145477186</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.480691044648665</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6224557916004443</v>
+      </c>
+      <c r="R14">
+        <v>1.019470886359443</v>
+      </c>
+      <c r="S14">
+        <v>1.338956475666208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.750794097644018</v>
+        <v>2.647069345332341</v>
       </c>
       <c r="C15">
-        <v>0.7011426929144875</v>
+        <v>0.7362879904097497</v>
       </c>
       <c r="D15">
-        <v>0.2956403055233494</v>
+        <v>0.295041235213418</v>
       </c>
       <c r="E15">
-        <v>0.06544134464462292</v>
+        <v>0.0645139540842532</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4050535334472158</v>
+        <v>0.417386496724248</v>
       </c>
       <c r="H15">
-        <v>0.1754472358520758</v>
+        <v>0.175336629504514</v>
       </c>
       <c r="I15">
-        <v>0.005846692578770352</v>
+        <v>0.005862674430211712</v>
       </c>
       <c r="J15">
-        <v>0.3049802872678669</v>
+        <v>0.262433670770065</v>
       </c>
       <c r="K15">
-        <v>0.200765221760399</v>
+        <v>0.1792668658707619</v>
       </c>
       <c r="L15">
-        <v>0.07774711109251342</v>
+        <v>0.1000525659054432</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0491295412850512</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0761658084845358</v>
       </c>
       <c r="O15">
-        <v>0.6069947770446191</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9682861321459484</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.446914315877279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6013386530244418</v>
+      </c>
+      <c r="R15">
+        <v>1.024660166988426</v>
+      </c>
+      <c r="S15">
+        <v>1.31518958286722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.579087741611716</v>
+        <v>2.496070841045366</v>
       </c>
       <c r="C16">
-        <v>0.660513760230856</v>
+        <v>0.6985813465135493</v>
       </c>
       <c r="D16">
-        <v>0.2874046294700463</v>
+        <v>0.2867187685228743</v>
       </c>
       <c r="E16">
-        <v>0.06554279948335395</v>
+        <v>0.06477133340048269</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3917866314262284</v>
+        <v>0.3744949544370826</v>
       </c>
       <c r="H16">
-        <v>0.1622440506418599</v>
+        <v>0.1621975185186528</v>
       </c>
       <c r="I16">
-        <v>0.004951584436675205</v>
+        <v>0.005150885864456889</v>
       </c>
       <c r="J16">
-        <v>0.3018138869304465</v>
+        <v>0.2968196221973685</v>
       </c>
       <c r="K16">
-        <v>0.2030628441657782</v>
+        <v>0.1848318394374608</v>
       </c>
       <c r="L16">
-        <v>0.0741524289251636</v>
+        <v>0.1038286188279915</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04818831472023355</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07304962469787668</v>
       </c>
       <c r="O16">
-        <v>0.5725123007794508</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9600056568582573</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.411966735252918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5701518198686273</v>
+      </c>
+      <c r="R16">
+        <v>1.002920513478102</v>
+      </c>
+      <c r="S16">
+        <v>1.313772744606155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.487156470865386</v>
+        <v>2.411527222708514</v>
       </c>
       <c r="C17">
-        <v>0.6450966873284756</v>
+        <v>0.6856480789591046</v>
       </c>
       <c r="D17">
-        <v>0.30443806828292</v>
+        <v>0.3037213076157315</v>
       </c>
       <c r="E17">
-        <v>0.07220167904633179</v>
+        <v>0.0715075511327079</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4014949851748213</v>
+        <v>0.3710773096964459</v>
       </c>
       <c r="H17">
-        <v>0.1242535989528477</v>
+        <v>0.1242298788556724</v>
       </c>
       <c r="I17">
-        <v>0.004544024812735969</v>
+        <v>0.004826367958057354</v>
       </c>
       <c r="J17">
-        <v>0.3089859383769351</v>
+        <v>0.3204682835631445</v>
       </c>
       <c r="K17">
-        <v>0.2110221228213689</v>
+        <v>0.1931400830496273</v>
       </c>
       <c r="L17">
-        <v>0.06440034598821853</v>
+        <v>0.1080135019840753</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04960602522237778</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06352029783259994</v>
       </c>
       <c r="O17">
-        <v>0.5854862614453822</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9372203627395663</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.447448342575029</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5844889757470568</v>
+      </c>
+      <c r="R17">
+        <v>0.9736657032472209</v>
+      </c>
+      <c r="S17">
+        <v>1.359367908144634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.455674621686057</v>
+        <v>2.379422009619361</v>
       </c>
       <c r="C18">
-        <v>0.6475920567422975</v>
+        <v>0.6921290360823491</v>
       </c>
       <c r="D18">
-        <v>0.3474977520390325</v>
+        <v>0.3467250803185777</v>
       </c>
       <c r="E18">
-        <v>0.08960054324815303</v>
+        <v>0.08890483463074084</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4336225392303135</v>
+        <v>0.3953070961344736</v>
       </c>
       <c r="H18">
-        <v>0.07140073237667366</v>
+        <v>0.07137934918137034</v>
       </c>
       <c r="I18">
-        <v>0.004210999282651784</v>
+        <v>0.004468963177624019</v>
       </c>
       <c r="J18">
-        <v>0.3265628628941784</v>
+        <v>0.3442676508984022</v>
       </c>
       <c r="K18">
-        <v>0.225759982478948</v>
+        <v>0.2061993668843023</v>
       </c>
       <c r="L18">
-        <v>0.05531893465588933</v>
+        <v>0.1136011443240115</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05360868991525791</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05449899514817602</v>
       </c>
       <c r="O18">
-        <v>0.6425886443382893</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9001286891817415</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.552300043734931</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6421533548230514</v>
+      </c>
+      <c r="R18">
+        <v>0.9334610404275736</v>
+      </c>
+      <c r="S18">
+        <v>1.460865512301098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.468749978508811</v>
+        <v>2.386646967059903</v>
       </c>
       <c r="C19">
-        <v>0.6685855145078108</v>
+        <v>0.7189475337331999</v>
       </c>
       <c r="D19">
-        <v>0.41222615707062</v>
+        <v>0.4113519545850295</v>
       </c>
       <c r="E19">
-        <v>0.1209217314085613</v>
+        <v>0.1201570310724556</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4804835060691346</v>
+        <v>0.4364522670932445</v>
       </c>
       <c r="H19">
-        <v>0.02632271124171126</v>
+        <v>0.02628564912743059</v>
       </c>
       <c r="I19">
-        <v>0.004459048449865222</v>
+        <v>0.004725711073678696</v>
       </c>
       <c r="J19">
-        <v>0.3505881290408581</v>
+        <v>0.3686375653757352</v>
       </c>
       <c r="K19">
-        <v>0.2441909025271833</v>
+        <v>0.221625517246796</v>
       </c>
       <c r="L19">
-        <v>0.05787304061318288</v>
+        <v>0.1196814268533117</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05919571540809798</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.05700090974446326</v>
       </c>
       <c r="O19">
-        <v>0.7344380736128784</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8596779297175061</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.701940402687455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7341203255901334</v>
+      </c>
+      <c r="R19">
+        <v>0.8919267539042011</v>
+      </c>
+      <c r="S19">
+        <v>1.598476120851842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.61787177601451</v>
+        <v>2.515583109922318</v>
       </c>
       <c r="C20">
-        <v>0.733587017497598</v>
+        <v>0.7947748653502629</v>
       </c>
       <c r="D20">
-        <v>0.5357310867840965</v>
+        <v>0.5346276091653692</v>
       </c>
       <c r="E20">
-        <v>0.18938610207287</v>
+        <v>0.1884105309403168</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.571418187857077</v>
+        <v>0.5284573509652688</v>
       </c>
       <c r="H20">
-        <v>0.001063564676866413</v>
+        <v>0.000937165897319403</v>
       </c>
       <c r="I20">
-        <v>0.00549222348377576</v>
+        <v>0.005638763530821933</v>
       </c>
       <c r="J20">
-        <v>0.3940453321729507</v>
+        <v>0.3942712611141843</v>
       </c>
       <c r="K20">
-        <v>0.2748105980165931</v>
+        <v>0.2450446995554607</v>
       </c>
       <c r="L20">
-        <v>0.09093466884469237</v>
+        <v>0.1269308722926255</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07044998717575623</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.08979769764314582</v>
       </c>
       <c r="O20">
-        <v>0.9215542496177349</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8041332996378898</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.985845630306443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.9199265256531746</v>
+      </c>
+      <c r="R20">
+        <v>0.8395293889727924</v>
+      </c>
+      <c r="S20">
+        <v>1.844462181410194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.949652189278595</v>
+        <v>2.801718807391069</v>
       </c>
       <c r="C21">
-        <v>0.8250720116260197</v>
+        <v>0.8820562870934907</v>
       </c>
       <c r="D21">
-        <v>0.5944076899963591</v>
+        <v>0.5936471771692879</v>
       </c>
       <c r="E21">
-        <v>0.2113528578683415</v>
+        <v>0.2104644272118747</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6265937696213797</v>
+        <v>0.6569110657286643</v>
       </c>
       <c r="H21">
-        <v>0.002450343781067232</v>
+        <v>0.002105424760703078</v>
       </c>
       <c r="I21">
-        <v>0.007660939536931366</v>
+        <v>0.007413692561625496</v>
       </c>
       <c r="J21">
-        <v>0.4151822447841624</v>
+        <v>0.315273036769284</v>
       </c>
       <c r="K21">
-        <v>0.2818759396953929</v>
+        <v>0.2409885738085968</v>
       </c>
       <c r="L21">
-        <v>0.1022817752211438</v>
+        <v>0.120291489810322</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07654415217311339</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1008875380382648</v>
       </c>
       <c r="O21">
-        <v>1.04817255458164</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7920279370344261</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.147416953896936</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.037694094750222</v>
+      </c>
+      <c r="R21">
+        <v>0.8483016946835846</v>
+      </c>
+      <c r="S21">
+        <v>1.913889757073377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.167757501807273</v>
+        <v>2.988094063780068</v>
       </c>
       <c r="C22">
-        <v>0.8804238462835485</v>
+        <v>0.9328083063894326</v>
       </c>
       <c r="D22">
-        <v>0.6274363492430837</v>
+        <v>0.627004040111018</v>
       </c>
       <c r="E22">
-        <v>0.2221588257747555</v>
+        <v>0.2214012960248866</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6611760268516917</v>
+        <v>0.7494282007329218</v>
       </c>
       <c r="H22">
-        <v>0.003700890823098657</v>
+        <v>0.003166757529392661</v>
       </c>
       <c r="I22">
-        <v>0.00900530396995336</v>
+        <v>0.008376435258789172</v>
       </c>
       <c r="J22">
-        <v>0.4283331986631964</v>
+        <v>0.2667864813356147</v>
       </c>
       <c r="K22">
-        <v>0.286482257266524</v>
+        <v>0.2378829240457527</v>
       </c>
       <c r="L22">
-        <v>0.107436885087715</v>
+        <v>0.115959282072863</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.08061015354990175</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1059186391967231</v>
       </c>
       <c r="O22">
-        <v>1.123324867258077</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7858787089713175</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.248481499786294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.106333505041491</v>
+      </c>
+      <c r="R22">
+        <v>0.8570049390006602</v>
+      </c>
+      <c r="S22">
+        <v>1.950067398943588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.055210878480068</v>
+        <v>2.895252819436791</v>
       </c>
       <c r="C23">
-        <v>0.8481150375483537</v>
+        <v>0.9048975048557963</v>
       </c>
       <c r="D23">
-        <v>0.609806803798989</v>
+        <v>0.6090988725982243</v>
       </c>
       <c r="E23">
-        <v>0.2164077307487915</v>
+        <v>0.2155184215621233</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6442978726966544</v>
+        <v>0.6917734096612804</v>
       </c>
       <c r="H23">
-        <v>0.003008529054135067</v>
+        <v>0.002585983607886866</v>
       </c>
       <c r="I23">
-        <v>0.008003594378534373</v>
+        <v>0.007530771926140822</v>
       </c>
       <c r="J23">
-        <v>0.4221086721357921</v>
+        <v>0.3013755165393803</v>
       </c>
       <c r="K23">
-        <v>0.2850903780525194</v>
+        <v>0.2412708533534946</v>
       </c>
       <c r="L23">
-        <v>0.1047056128046862</v>
+        <v>0.1188267079119143</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07916069831787098</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1032233812456198</v>
       </c>
       <c r="O23">
-        <v>1.083195376151558</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7878297753514758</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.199552585171034</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.07064915467479</v>
+      </c>
+      <c r="R23">
+        <v>0.849416751079815</v>
+      </c>
+      <c r="S23">
+        <v>1.943170845865239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.622280333059621</v>
+        <v>2.519556231881438</v>
       </c>
       <c r="C24">
-        <v>0.7308525676546083</v>
+        <v>0.7924517400052764</v>
       </c>
       <c r="D24">
-        <v>0.5435516420799047</v>
+        <v>0.5424306989724528</v>
       </c>
       <c r="E24">
-        <v>0.1946753645074928</v>
+        <v>0.1936883898278694</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.579050138464666</v>
+        <v>0.534958693267825</v>
       </c>
       <c r="H24">
-        <v>0.001000403522216864</v>
+        <v>0.0008700121436724384</v>
       </c>
       <c r="I24">
-        <v>0.005065341330249495</v>
+        <v>0.005109868181213173</v>
       </c>
       <c r="J24">
-        <v>0.3979611613386993</v>
+        <v>0.3987516421450579</v>
       </c>
       <c r="K24">
-        <v>0.2787213286158376</v>
+        <v>0.2484858634594431</v>
       </c>
       <c r="L24">
-        <v>0.09436214841462132</v>
+        <v>0.1282801229607067</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07169363536983298</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.09321779425048859</v>
       </c>
       <c r="O24">
-        <v>0.9315334301453362</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7987406362765981</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.010220566020422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.9299621582222315</v>
+      </c>
+      <c r="R24">
+        <v>0.8334951056542224</v>
+      </c>
+      <c r="S24">
+        <v>1.867586899609108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.154310822828563</v>
+        <v>2.081154998628961</v>
       </c>
       <c r="C25">
-        <v>0.6053908071374394</v>
+        <v>0.6501081967785751</v>
       </c>
       <c r="D25">
-        <v>0.4731066200343719</v>
+        <v>0.4725435620565293</v>
       </c>
       <c r="E25">
-        <v>0.1713564028759968</v>
+        <v>0.1708621283232503</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5112574216811083</v>
+        <v>0.4680139238434293</v>
       </c>
       <c r="H25">
-        <v>3.017320759846065E-05</v>
+        <v>2.129851902266111E-05</v>
       </c>
       <c r="I25">
-        <v>0.002759122088445309</v>
+        <v>0.003062306066779819</v>
       </c>
       <c r="J25">
-        <v>0.3734480498497561</v>
+        <v>0.3872842321908649</v>
       </c>
       <c r="K25">
-        <v>0.2732295632755175</v>
+        <v>0.2484075944878299</v>
       </c>
       <c r="L25">
-        <v>0.08323570364390065</v>
+        <v>0.1360523586387075</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.06196835489536667</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.08268419025823803</v>
       </c>
       <c r="O25">
-        <v>0.768427978091033</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8133283658257753</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.81466097771488</v>
+        <v>0.7680894558854874</v>
+      </c>
+      <c r="R25">
+        <v>0.8339121427408855</v>
+      </c>
+      <c r="S25">
+        <v>1.707897990613247</v>
       </c>
     </row>
   </sheetData>
